--- a/data/procesados/procesadosCanal/algabo.xlsx
+++ b/data/procesados/procesadosCanal/algabo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1495">
   <si>
     <t>Identificador de URL</t>
   </si>
@@ -397,10 +397,10 @@
     <t>polvo-desodorante-para-pies-talquera-100g</t>
   </si>
   <si>
-    <t>polvo-desodorante-para-pies-talquera-200g</t>
-  </si>
-  <si>
-    <t>polvo-desodorante-para-pies-repuesto-200-g</t>
+    <t>algabo-polvo-desodorante-para-pies-200-grs</t>
+  </si>
+  <si>
+    <t>algabo-polvo-desodorante-para-pieas-repuesto-200-grs</t>
   </si>
   <si>
     <t>algabo-foot-ep-200</t>
@@ -409,10 +409,10 @@
     <t>desodorante-anti-transpirante-para-pies-aerosol-153ml</t>
   </si>
   <si>
-    <t>desodorante-antitranspirante-para-calzado-aerosol-153-ml</t>
-  </si>
-  <si>
-    <t>desodorante-en-polvo-clasico-180g</t>
+    <t>algabo-desodorante-antitranspirante-para-calzado-aerosol-153-ml</t>
+  </si>
+  <si>
+    <t>algabo-desodorante-en-polvo-clasico-180-grs</t>
   </si>
   <si>
     <t>polvo-desodorante-para-pies-talquera-100g1</t>
@@ -421,10 +421,10 @@
     <t>algabo-foot-mujer-100</t>
   </si>
   <si>
-    <t>desodorante-en-polvo-clasico-200g</t>
-  </si>
-  <si>
-    <t>desodorante-en-polvo-suave-180g</t>
+    <t>algabo-desodorante-en-polvo-clasico-200-grs</t>
+  </si>
+  <si>
+    <t>algabo-desodorante-en-polvo-suave-180-grs</t>
   </si>
   <si>
     <t>algabo-talco-soft-rosa-180</t>
@@ -436,10 +436,10 @@
     <t>algabo-talco-clasico-120</t>
   </si>
   <si>
-    <t>talco-desodorante-en-polvo-antibacterial-100g</t>
-  </si>
-  <si>
-    <t>talco-desodorante-en-polvo-antibacterial-200g</t>
+    <t>algabo-talco-desodorante-en-polvo-antibacterial-100-grs</t>
+  </si>
+  <si>
+    <t>algabo-talco-desodorante-en-polvo-antibacterial-200-grs</t>
   </si>
   <si>
     <t>algabo-foot-antibacterial-200</t>
@@ -448,25 +448,25 @@
     <t>talco-perfumado-floral-250g</t>
   </si>
   <si>
-    <t>talco-perfumado-talquera-violets-250g</t>
-  </si>
-  <si>
-    <t>talco-perfumado-bolsita-floral-200g</t>
+    <t>algabo-talco-perfumado-talquera-violets-250-grs</t>
+  </si>
+  <si>
+    <t>algabo-talco-perfumado-bolista-floral-200-grs</t>
   </si>
   <si>
     <t>caja-x20-talco-perfumado-bolsita-floral-400g</t>
   </si>
   <si>
-    <t>polvo-de-fecula-talquera-250g</t>
-  </si>
-  <si>
-    <t>repuesto-polvo-fecula-250g</t>
-  </si>
-  <si>
-    <t>colonia-ambre-500ml</t>
-  </si>
-  <si>
-    <t>colonia-inglesa-500ml</t>
+    <t>algabo-polvo-de-fecula-talquera-250-grs</t>
+  </si>
+  <si>
+    <t>algabo-polvo-fecula-repuesto-250-grs</t>
+  </si>
+  <si>
+    <t>algabo-colonia-ambre-500-ml</t>
+  </si>
+  <si>
+    <t>algabo-colonia-inglesa-500-ml</t>
   </si>
   <si>
     <t>colonia-lavanda-500ml</t>
@@ -745,7 +745,7 @@
     <t>kids-acondicionador-sandia-dulce-750-ml</t>
   </si>
   <si>
-    <t>trolls-poppi-acondicionador-750-ml</t>
+    <t>trolls-acondicionador-poppi-750-ml</t>
   </si>
   <si>
     <t>algabo-ac-aguacate-y-argan-930</t>
@@ -1057,7 +1057,7 @@
     <t>Ultra Zombies - Colonia 125 ml + Shampoo 200 ml</t>
   </si>
   <si>
-    <t>Ultra Zombies Colonia 125 ml</t>
+    <t>Ultra Zombies - Colonia - 125 ml</t>
   </si>
   <si>
     <t>Ultra Zombies Alcohol Gel Pocket 60 ml</t>
@@ -1294,10 +1294,10 @@
     <t>POLVO DESODORANTE PARA PIES TALQUERA 100G</t>
   </si>
   <si>
-    <t>POLVO DESODORANTE PARA PIES TALQUERA 200G</t>
-  </si>
-  <si>
-    <t>POLVO DESODORANTE PARA PIES REPUESTO 200 G</t>
+    <t>Algabo - Polvo desodorante para pies - 200 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Polvo desodorante para pieas - Repuesto - 200 grs</t>
   </si>
   <si>
     <t>algabo foot 60</t>
@@ -1306,10 +1306,10 @@
     <t>DESODORANTE ANTI TRANSPIRANTE PARA PIES AEROSOL 153ML</t>
   </si>
   <si>
-    <t>DESODORANTE ANTITRANSPIRANTE PARA CALZADO AEROSOL 153 ML</t>
-  </si>
-  <si>
-    <t>DESODORANTE EN POLVO CLÁSICO 180G</t>
+    <t>Algabo - Desodorante antitranspirante para calzado aerosol - 153 ml</t>
+  </si>
+  <si>
+    <t>Algabo - Desodorante en polvo clasico - 180 grs</t>
   </si>
   <si>
     <t>POLVO DESODORANTE PARA PIES TALQUERA 100G.</t>
@@ -1318,10 +1318,10 @@
     <t>algabo foot mujer 60</t>
   </si>
   <si>
-    <t>DESODORANTE EN POLVO CLÁSICO 200G</t>
-  </si>
-  <si>
-    <t>DESODORANTE EN POLVO SUAVE 180G</t>
+    <t>Algabo - Desodorante en polvo clasico - 200 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Desodorante en polvo suave - 180 grs</t>
   </si>
   <si>
     <t>algabo talco soft ep 200</t>
@@ -1333,10 +1333,10 @@
     <t>algabo talco soft 120</t>
   </si>
   <si>
-    <t>TALCO DESODORANTE EN POLVO ANTIBACTERIAL 100G</t>
-  </si>
-  <si>
-    <t>TALCO DESODORANTE EN POLVO ANTIBACTERIAL 200G</t>
+    <t>Algabo - Talco desodorante en polvo antibacterial - 100 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Talco desodorante en polvo antibacterial - 200 grs</t>
   </si>
   <si>
     <t>algabo foot att fresh aer 153</t>
@@ -1345,25 +1345,25 @@
     <t>TALCO PERFUMADO FLORAL 250G</t>
   </si>
   <si>
-    <t>TALCO PERFUMADO TALQUERA VIOLETS 250G</t>
-  </si>
-  <si>
-    <t>TALCO PERFUMADO BOLSITA FLORAL 200G</t>
+    <t>Algabo - Talco perfumado talquera violets - 250 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Talco perfumado bolista floral - 200 grs</t>
   </si>
   <si>
     <t>CAJA X20 TALCO PERFUMADO BOLSITA FLORAL 400G</t>
   </si>
   <si>
-    <t>POLVO DE FÉCULA TALQUERA 250G</t>
-  </si>
-  <si>
-    <t>REPUESTO POLVO FÉCULA 250G</t>
-  </si>
-  <si>
-    <t>COLONIA AMBRE 500ML</t>
-  </si>
-  <si>
-    <t>COLONIA INGLESA 500ML</t>
+    <t>Algabo - Polvo de fecula talquera - 250 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Polvo fecula - Repuesto - 250 grs</t>
+  </si>
+  <si>
+    <t>Algabo - Colonia Ambre - 500 ml</t>
+  </si>
+  <si>
+    <t>Algabo - Colonia Inglesa - 500 ml</t>
   </si>
   <si>
     <t>COLONIA LAVANDA 500ML</t>
@@ -1561,7 +1561,7 @@
     <t>algabo quita black 100</t>
   </si>
   <si>
-    <t>Kids Shampoo Sandia Dulce 350 ml</t>
+    <t>Kids - Shampoo Sandia Dulce - 350 ml</t>
   </si>
   <si>
     <t>Kids Shampoo Melocoton 350 ml</t>
@@ -1624,7 +1624,7 @@
     <t>algabo sh 0% oliva y argan 750</t>
   </si>
   <si>
-    <t>kids aco sandia dulce 350</t>
+    <t>Kids - Acondicionador sandia dulce - 350 ml</t>
   </si>
   <si>
     <t>algabo ac aguac y argan ep 300</t>
@@ -1642,7 +1642,7 @@
     <t>kids aco sandia dulce 750</t>
   </si>
   <si>
-    <t>trolls acond poppi 750</t>
+    <t>Trolls - Acondicionador Poppi - 750 ml</t>
   </si>
   <si>
     <t>algabo ac aguacate y argan 930</t>
@@ -2743,346 +2743,325 @@
     <t>Algabo</t>
   </si>
   <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>285.00</t>
+    <t>283.00</t>
+  </si>
+  <si>
+    <t>309.00</t>
+  </si>
+  <si>
+    <t>468.00</t>
+  </si>
+  <si>
+    <t>337.00</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>267.00</t>
+  </si>
+  <si>
+    <t>329.00</t>
+  </si>
+  <si>
+    <t>324.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>571.00</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>432.00</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>617.00</t>
+  </si>
+  <si>
+    <t>293.00</t>
+  </si>
+  <si>
+    <t>979.00</t>
+  </si>
+  <si>
+    <t>823.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>1,111.00</t>
+  </si>
+  <si>
+    <t>1,954.00</t>
+  </si>
+  <si>
+    <t>262.00</t>
+  </si>
+  <si>
+    <t>440.00</t>
+  </si>
+  <si>
+    <t>1,214.00</t>
+  </si>
+  <si>
+    <t>771.00</t>
+  </si>
+  <si>
+    <t>972.00</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>339.00</t>
+  </si>
+  <si>
+    <t>561.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>1,275.00</t>
+  </si>
+  <si>
+    <t>171.00</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>391.00</t>
+  </si>
+  <si>
+    <t>1,800.00</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>358.00</t>
+  </si>
+  <si>
+    <t>669.00</t>
+  </si>
+  <si>
+    <t>471.00</t>
+  </si>
+  <si>
+    <t>181.00</t>
+  </si>
+  <si>
+    <t>566.00</t>
+  </si>
+  <si>
+    <t>734.00</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>905.00</t>
+  </si>
+  <si>
+    <t>367.00</t>
+  </si>
+  <si>
+    <t>1,272.00</t>
+  </si>
+  <si>
+    <t>238.00</t>
+  </si>
+  <si>
+    <t>357.00</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>1,013.00</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>292.00</t>
+  </si>
+  <si>
+    <t>382.00</t>
+  </si>
+  <si>
+    <t>514.00</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>182.00</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>185.00</t>
+  </si>
+  <si>
+    <t>269.00</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>342.00</t>
+  </si>
+  <si>
+    <t>655.00</t>
   </si>
   <si>
     <t>427.00</t>
   </si>
   <si>
-    <t>313.00</t>
-  </si>
-  <si>
-    <t>212.00</t>
-  </si>
-  <si>
-    <t>245.00</t>
+    <t>341.00</t>
+  </si>
+  <si>
+    <t>1,875.00</t>
+  </si>
+  <si>
+    <t>453.00</t>
+  </si>
+  <si>
+    <t>422.00</t>
+  </si>
+  <si>
+    <t>277.00</t>
+  </si>
+  <si>
+    <t>248.00</t>
+  </si>
+  <si>
+    <t>224.00</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>252.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>1,851.00</t>
+  </si>
+  <si>
+    <t>2,008.00</t>
+  </si>
+  <si>
+    <t>2,353.00</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>538.00</t>
+  </si>
+  <si>
+    <t>607.00</t>
+  </si>
+  <si>
+    <t>318.00</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>504.00</t>
+  </si>
+  <si>
+    <t>389.00</t>
+  </si>
+  <si>
+    <t>537.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>376.00</t>
+  </si>
+  <si>
+    <t>278.00</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>522.00</t>
+  </si>
+  <si>
+    <t>435.00</t>
+  </si>
+  <si>
+    <t>331.00</t>
+  </si>
+  <si>
+    <t>335.00</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>463.00</t>
+  </si>
+  <si>
+    <t>273.00</t>
   </si>
   <si>
     <t>240.00</t>
   </si>
   <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>543.00</t>
-  </si>
-  <si>
-    <t>352.00</t>
-  </si>
-  <si>
-    <t>405.00</t>
-  </si>
-  <si>
-    <t>283.00</t>
-  </si>
-  <si>
-    <t>583.00</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>926.00</t>
-  </si>
-  <si>
-    <t>771.00</t>
-  </si>
-  <si>
-    <t>658.00</t>
-  </si>
-  <si>
-    <t>1,027.00</t>
-  </si>
-  <si>
-    <t>293.00</t>
-  </si>
-  <si>
-    <t>1,851.00</t>
-  </si>
-  <si>
-    <t>257.00</t>
-  </si>
-  <si>
-    <t>206.00</t>
-  </si>
-  <si>
-    <t>424.00</t>
-  </si>
-  <si>
-    <t>1,116.00</t>
-  </si>
-  <si>
-    <t>724.00</t>
-  </si>
-  <si>
-    <t>903.00</t>
-  </si>
-  <si>
-    <t>309.00</t>
-  </si>
-  <si>
-    <t>530.00</t>
-  </si>
-  <si>
-    <t>371.00</t>
-  </si>
-  <si>
-    <t>1,171.00</t>
-  </si>
-  <si>
-    <t>163.00</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>375.00</t>
-  </si>
-  <si>
-    <t>1,800.00</t>
-  </si>
-  <si>
-    <t>195.00</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>636.00</t>
-  </si>
-  <si>
-    <t>440.00</t>
-  </si>
-  <si>
-    <t>719.00</t>
-  </si>
-  <si>
-    <t>170.00</t>
-  </si>
-  <si>
-    <t>370.00</t>
-  </si>
-  <si>
-    <t>670.00</t>
-  </si>
-  <si>
-    <t>946.00</t>
-  </si>
-  <si>
-    <t>456.00</t>
-  </si>
-  <si>
-    <t>580.00</t>
-  </si>
-  <si>
-    <t>870.00</t>
+    <t>323.00</t>
   </si>
   <si>
     <t>525.00</t>
   </si>
   <si>
-    <t>345.00</t>
-  </si>
-  <si>
-    <t>1,183.00</t>
-  </si>
-  <si>
-    <t>759.00</t>
-  </si>
-  <si>
-    <t>238.00</t>
-  </si>
-  <si>
-    <t>357.00</t>
-  </si>
-  <si>
-    <t>269.00</t>
-  </si>
-  <si>
-    <t>1,013.00</t>
-  </si>
-  <si>
-    <t>129.00</t>
-  </si>
-  <si>
-    <t>734.00</t>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>746.00</t>
   </si>
   <si>
     <t>378.00</t>
   </si>
   <si>
-    <t>193.00</t>
-  </si>
-  <si>
-    <t>291.00</t>
-  </si>
-  <si>
-    <t>214.00</t>
-  </si>
-  <si>
-    <t>259.00</t>
-  </si>
-  <si>
-    <t>204.00</t>
-  </si>
-  <si>
-    <t>301.00</t>
-  </si>
-  <si>
-    <t>244.00</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>381.00</t>
-  </si>
-  <si>
-    <t>324.00</t>
-  </si>
-  <si>
-    <t>535.00</t>
-  </si>
-  <si>
-    <t>597.00</t>
-  </si>
-  <si>
-    <t>318.00</t>
-  </si>
-  <si>
-    <t>1,875.00</t>
-  </si>
-  <si>
-    <t>391.00</t>
-  </si>
-  <si>
-    <t>277.00</t>
-  </si>
-  <si>
-    <t>248.00</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>234.00</t>
-  </si>
-  <si>
-    <t>586.00</t>
-  </si>
-  <si>
-    <t>154.00</t>
-  </si>
-  <si>
-    <t>252.00</t>
-  </si>
-  <si>
-    <t>134.00</t>
-  </si>
-  <si>
-    <t>331.00</t>
-  </si>
-  <si>
-    <t>2,008.00</t>
-  </si>
-  <si>
-    <t>2,353.00</t>
-  </si>
-  <si>
-    <t>229.00</t>
-  </si>
-  <si>
-    <t>512.00</t>
-  </si>
-  <si>
-    <t>566.00</t>
-  </si>
-  <si>
-    <t>239.00</t>
-  </si>
-  <si>
-    <t>531.00</t>
-  </si>
-  <si>
-    <t>268.00</t>
-  </si>
-  <si>
-    <t>115.00</t>
-  </si>
-  <si>
-    <t>175.00</t>
-  </si>
-  <si>
-    <t>224.00</t>
-  </si>
-  <si>
-    <t>161.00</t>
-  </si>
-  <si>
-    <t>479.00</t>
-  </si>
-  <si>
-    <t>783.00</t>
-  </si>
-  <si>
-    <t>358.00</t>
-  </si>
-  <si>
-    <t>326.00</t>
-  </si>
-  <si>
-    <t>426.00</t>
-  </si>
-  <si>
-    <t>490.00</t>
-  </si>
-  <si>
-    <t>335.00</t>
-  </si>
-  <si>
-    <t>342.00</t>
-  </si>
-  <si>
-    <t>262.00</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>478.00</t>
-  </si>
-  <si>
-    <t>299.00</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>433.00</t>
-  </si>
-  <si>
-    <t>360.00</t>
-  </si>
-  <si>
-    <t>223.00</t>
-  </si>
-  <si>
-    <t>685.00</t>
-  </si>
-  <si>
-    <t>355.00</t>
-  </si>
-  <si>
-    <t>519.00</t>
+    <t>550.00</t>
   </si>
   <si>
     <t>205.00</t>
@@ -3435,7 +3414,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Es un riqu&amp;iacute;simo y refrescante Body Splash en su presentaci&amp;oacute;n de Zombies. Ideal para luego de la ducha o el ba&amp;ntilde;o.&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;Es un riqu&amp;iacute;simo y refrescante Body Splash en su presentaci&amp;oacute;n de Zombies. Ideal para luego de la ducha o el ba&amp;ntilde;o.&lt;/p&gt;_x000D_
 </t>
   </si>
   <si>
@@ -3625,6 +3604,18 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Es un desodorante para pies, en polvo con componentes antis&amp;eacute;pticos, antif&amp;uacute;ngicos y antibacterianos.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Controla el hedor durante todo el d&amp;iacute;a.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Mantiene los pies y el calzado frescos, secos y perfumados.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Combate y previene la formaci&amp;oacute;n de hongos.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Ayuda a prevenir el pie de atleta&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;p&gt;Funciona como antitranspirante para pies en aerosol con componentes antis&amp;eacute;pticos, antif&amp;uacute;ngicos y antibacterianos. Producto sin Alcohol&lt;/p&gt;
 &lt;p&gt;- Controla el hedor durante todo el d&amp;iacute;a.&lt;/p&gt;
 &lt;p&gt;- Mantiene los pies y el calzado frescos, secos y perfumados.&lt;/p&gt;
@@ -3633,11 +3624,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Es un desodorante seco aplicable a cualquier tipo de calzado. Producto sin alcohol&lt;/p&gt;
-&lt;p&gt;- Controla el hedor durante todo el d&amp;iacute;a.&lt;/p&gt;
-&lt;p&gt;- Mantiene los pies y el calzado frescos, secos y perfumados.&lt;/p&gt;
-&lt;p&gt;- Combate y previene la formaci&amp;oacute;n de hongos.&lt;/p&gt;
-&lt;p&gt;- Ayuda a prevenir el pie de atleta&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;Es un desodorante seco aplicable a cualquier tipo de calzado. Producto sin alcohol&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Controla el hedor durante todo el d&amp;iacute;a.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Mantiene los pies y el calzado frescos, secos y perfumados.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Combate y previene la formaci&amp;oacute;n de hongos.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Ayuda a prevenir el pie de atleta&lt;/p&gt;_x000D_
 </t>
   </si>
   <si>
@@ -3649,14 +3644,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Es un polvo para el cuerpo, a base de f&amp;eacute;cula que ayuda a mantener seca la piel, con una agradable sensaci&amp;oacute;n de frescura.&lt;/p&gt;
-&lt;p&gt;- Mantiene la piel seca contra la transpiraci&amp;oacute;n.&lt;br /&gt;
-- Deja un delicado perfume.&lt;br /&gt;
-- Evita irritaciones producidas por la fricci&amp;oacute;n.&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;- Mantienen la piel seca.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Dejan un delicado perfume.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Evitan irritaciones producidas por fricciones.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;&amp;nbsp;&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;Un excelente producto para mantenerse fresco, seco y delicadamente perfumado evitando el olor a transpiraci&amp;oacute;n. Se pueden combinar con las colonias que comparten sus fragancias.&lt;/p&gt;_x000D_
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Dulce, compuesta por esencias de Ylang, y clavo de olor.&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;Es un polvo para el cuerpo, a base de f&amp;eacute;cula que ayuda a mantener seca la piel, con una agradable sensaci&amp;oacute;n de frescura.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;- Mantiene la piel seca contra la transpiraci&amp;oacute;n.&lt;br /&gt;_x000D_
+- Deja un delicado perfume.&lt;br /&gt;_x000D_
+- Evita irritaciones producidas por la fricci&amp;oacute;n.&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Dulce, compuesta por esencias de Ylang, y clavo de olor.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;Su frescura proporciona una agradable sensaci&amp;oacute;n de bienestar y estimula los sentidos. Ideales para refrescar la piel despu&amp;eacute;s del ba&amp;ntilde;o.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;No testeado en animales&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Tradicional y distinguida fragancia, t&amp;iacute;picamente inglesa, su composici&amp;oacute;n c&amp;iacute;trica y refrescante es ideal para toda la familia.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;Su frescura proporciona una agradable sensaci&amp;oacute;n de bienestar y estimula los sentidos. Ideales para refrescar la piel despu&amp;eacute;s del ba&amp;ntilde;o.&lt;/p&gt;_x000D_
+_x000D_
+&lt;p&gt;No testeado en animales&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Le brinda a su cuerpo una frescura inigualable y una agradable fragancia.&lt;/p&gt;
 &lt;p&gt;Su frescura proporciona una agradable sensaci&amp;oacute;n de bienestar y estimula los sentidos. Ideales para refrescar la piel despu&amp;eacute;s del ba&amp;ntilde;o.&lt;/p&gt;
 &lt;p&gt;No testeado en animales&lt;/p&gt;
 </t>
@@ -3668,12 +3692,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Le brinda a su cuerpo una frescura inigualable y una agradable fragancia.&lt;/p&gt;
-&lt;p&gt;Su frescura proporciona una agradable sensaci&amp;oacute;n de bienestar y estimula los sentidos. Ideales para refrescar la piel despu&amp;eacute;s del ba&amp;ntilde;o.&lt;/p&gt;
-&lt;p&gt;No testeado en animales&lt;/p&gt;
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;p&gt;Elimina el 99,9% de las bacterias, 10 veces m&amp;aacute;s protecci&amp;oacute;n.&lt;/p&gt;
 &lt;p&gt;SIn parabenos - Sin siliconas - Sin propilenglicol&amp;nbsp;&lt;br /&gt;
 NO TESTEADO EN ANIMALES&lt;/p&gt;
@@ -3686,6 +3704,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;Limpia y da brillo, dejando en el cabello de los ni&amp;ntilde;os una suave y divertida fragancia. Contiene una f&amp;oacute;rmula extra suave y dermatol&amp;oacute;gicamente testeada. NO PRODUCE IRRITACIONES EN LA PIEL. Hipoalerg&amp;eacute;nicos. No irrita la mucosa ocular - Sin L&amp;aacute;grimas. Recomendado para uso diario. Sin Parabenos - Sin Siliconas - Sin Propilenglicol NO TESTEADO EN ANIMALES&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
     <t>Limpia y da brillo, dejando en el cabello de los niños una suave y divertida fragancia. Contiene una fórmula extra suave y dermatológicamente testeada. NO PRODUCE IRRITACIONES EN LA PIEL. Hipoalergénicos. No irrita la mucosa ocular - Sin Lágrimas. Recomendado para uso diario. Sin Parabenos - Sin Siliconas - Sin Propilenglicol NO TESTEADO EN ANIMALES</t>
   </si>
   <si>
@@ -3693,11 +3715,57 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;p&gt;La crema de enjuague es un acondicionador que neutraliza las cargas del cabello y otorga suavidad facilitando el peinado. Algabo Kids desarroll&amp;oacute; este acondicionador para chicos, con fragancia a SANDIA DULCE para ofrecerles un complemento divertido luego del Shampoo.Cl&amp;iacute;nica y dermatol&amp;oacute;gicamente testeado - Hipoalerg&amp;eacute;nico Sin Propelinglicol - Sin Siliconas - Sin Parabenos NO TESTEADO EN ANIMALES&lt;/p&gt;_x000D_
+</t>
+  </si>
+  <si>
     <t>La crema de enjuague es un acondicionador que neutraliza las cargas del cabello y otorga suavidad facilitando el peinado. Algabo Kids desarrolló este acondicionador para chicos, con fragancia a SANDIA DULCE para ofrecerles un complemento divertido luego del Shampoo.Clínica y dermatológicamente testeado - Hipoalergénico Sin Propelinglicol - Sin Siliconas - Sin Parabenos NO TESTEADO EN ANIMALES</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Divertido acondicionador ideal para los m&amp;aacute;s chicos. La crema de enjuague es un acondicionador que neutraliza las cargas del cabello y otorga suavidad facilitando el peinado. La tapas poseen un pelaje sint&amp;eacute;tico simulando la cabellera de los personajes. Los envases, de producci&amp;oacute;n propia, son de atractivos colores. Cl&amp;iacute;nica y dermatol&amp;oacute;gicamente testeado. &amp;iquest;QU&amp;Eacute; HACE? - Acondiciona y otorga suavidad. - Desenredan el cabello facilitando el peinado. - Dejan una agradable fragancia en el cabello limpio.&lt;/p&gt;
+    <t xml:space="preserve">&lt;p&gt;Divertido acondicionador ideal para los m&amp;aacute;s chicos. La crema de enjuague es un acondicionador que neutraliza las cargas del cabello y otorga suavidad facilitando el peinado. La tapas poseen un pelaje sint&amp;eacute;tico simulando la cabellera de los personajes. Los envases, de producci&amp;oacute;n propia, son de atractivos colores. Cl&amp;iacute;nica y dermatol&amp;oacute;gicamente testeado. &amp;iquest;QU&amp;Eacute; HACE? - Acondiciona y otorga suavidad. - Desenredan el cabello facilitando el peinado. - Dejan una agradable fragancia en el cabello limpio.&lt;/p&gt;_x000D_
 </t>
+  </si>
+  <si>
+    <t>Vais</t>
+  </si>
+  <si>
+    <t>Sally Unicornio</t>
+  </si>
+  <si>
+    <t>Ultra Zombies</t>
+  </si>
+  <si>
+    <t>Algabo Baby</t>
+  </si>
+  <si>
+    <t>Algabo Kids</t>
+  </si>
+  <si>
+    <t>Hello Kitty</t>
+  </si>
+  <si>
+    <t>Princesas</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Avengers</t>
+  </si>
+  <si>
+    <t>Minions</t>
+  </si>
+  <si>
+    <t>GreenWood</t>
+  </si>
+  <si>
+    <t>Chapoteando</t>
+  </si>
+  <si>
+    <t>Trolls</t>
   </si>
   <si>
     <t>Algabo1010151.0</t>
@@ -4992,7 +5060,7 @@
         <v>312</v>
       </c>
       <c r="C2">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
         <v>611</v>
@@ -5004,10 +5072,10 @@
         <v>909</v>
       </c>
       <c r="L2" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M2" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5018,7 +5086,7 @@
         <v>313</v>
       </c>
       <c r="C3">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
         <v>612</v>
@@ -5030,10 +5098,10 @@
         <v>910</v>
       </c>
       <c r="L3" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M3" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5044,7 +5112,7 @@
         <v>314</v>
       </c>
       <c r="C4">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="D4" t="s">
         <v>613</v>
@@ -5056,10 +5124,10 @@
         <v>911</v>
       </c>
       <c r="L4" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M4" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5070,7 +5138,7 @@
         <v>315</v>
       </c>
       <c r="C5">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
         <v>614</v>
@@ -5082,10 +5150,10 @@
         <v>912</v>
       </c>
       <c r="L5" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M5" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5096,7 +5164,7 @@
         <v>316</v>
       </c>
       <c r="C6">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D6" t="s">
         <v>615</v>
@@ -5108,10 +5176,10 @@
         <v>913</v>
       </c>
       <c r="L6" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M6" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5122,7 +5190,7 @@
         <v>317</v>
       </c>
       <c r="C7">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
         <v>616</v>
@@ -5134,10 +5202,10 @@
         <v>914</v>
       </c>
       <c r="L7" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M7" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5148,7 +5216,7 @@
         <v>318</v>
       </c>
       <c r="C8">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="D8" t="s">
         <v>617</v>
@@ -5157,13 +5225,13 @@
         <v>908</v>
       </c>
       <c r="F8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L8" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M8" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5174,7 +5242,7 @@
         <v>319</v>
       </c>
       <c r="C9">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
         <v>618</v>
@@ -5186,10 +5254,10 @@
         <v>910</v>
       </c>
       <c r="L9" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M9" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5200,7 +5268,7 @@
         <v>320</v>
       </c>
       <c r="C10">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
         <v>619</v>
@@ -5209,13 +5277,13 @@
         <v>908</v>
       </c>
       <c r="F10" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L10" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M10" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5226,7 +5294,7 @@
         <v>321</v>
       </c>
       <c r="C11">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="D11" t="s">
         <v>620</v>
@@ -5238,10 +5306,10 @@
         <v>916</v>
       </c>
       <c r="L11" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M11" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5252,7 +5320,7 @@
         <v>322</v>
       </c>
       <c r="C12">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D12" t="s">
         <v>621</v>
@@ -5264,10 +5332,10 @@
         <v>917</v>
       </c>
       <c r="L12" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M12" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5278,7 +5346,7 @@
         <v>323</v>
       </c>
       <c r="C13">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D13" t="s">
         <v>622</v>
@@ -5290,10 +5358,10 @@
         <v>917</v>
       </c>
       <c r="L13" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M13" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5304,7 +5372,7 @@
         <v>324</v>
       </c>
       <c r="C14">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
         <v>623</v>
@@ -5316,10 +5384,10 @@
         <v>917</v>
       </c>
       <c r="L14" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M14" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5330,7 +5398,7 @@
         <v>325</v>
       </c>
       <c r="C15">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
         <v>624</v>
@@ -5342,10 +5410,10 @@
         <v>917</v>
       </c>
       <c r="L15" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M15" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5356,7 +5424,7 @@
         <v>326</v>
       </c>
       <c r="C16">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="D16" t="s">
         <v>625</v>
@@ -5368,10 +5436,10 @@
         <v>918</v>
       </c>
       <c r="L16" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M16" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -5382,7 +5450,7 @@
         <v>327</v>
       </c>
       <c r="C17">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="D17" t="s">
         <v>626</v>
@@ -5394,10 +5462,10 @@
         <v>918</v>
       </c>
       <c r="L17" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M17" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5408,7 +5476,7 @@
         <v>328</v>
       </c>
       <c r="C18">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="D18" t="s">
         <v>627</v>
@@ -5420,10 +5488,10 @@
         <v>918</v>
       </c>
       <c r="L18" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M18" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -5434,7 +5502,7 @@
         <v>329</v>
       </c>
       <c r="C19">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="D19" t="s">
         <v>628</v>
@@ -5446,10 +5514,10 @@
         <v>918</v>
       </c>
       <c r="L19" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M19" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -5469,13 +5537,13 @@
         <v>908</v>
       </c>
       <c r="F20" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="L20" t="s">
         <v>908</v>
       </c>
       <c r="M20" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -5486,7 +5554,7 @@
         <v>331</v>
       </c>
       <c r="C21">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
         <v>630</v>
@@ -5495,13 +5563,13 @@
         <v>908</v>
       </c>
       <c r="F21" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="L21" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M21" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -5512,7 +5580,7 @@
         <v>332</v>
       </c>
       <c r="C22">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="D22" t="s">
         <v>631</v>
@@ -5521,13 +5589,13 @@
         <v>908</v>
       </c>
       <c r="F22" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="L22" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M22" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -5538,7 +5606,7 @@
         <v>333</v>
       </c>
       <c r="C23">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D23" t="s">
         <v>632</v>
@@ -5547,13 +5615,13 @@
         <v>908</v>
       </c>
       <c r="F23" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="L23" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M23" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -5564,7 +5632,7 @@
         <v>334</v>
       </c>
       <c r="C24">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="D24" t="s">
         <v>633</v>
@@ -5573,13 +5641,13 @@
         <v>908</v>
       </c>
       <c r="F24" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="L24" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M24" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -5590,7 +5658,7 @@
         <v>335</v>
       </c>
       <c r="C25">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="D25" t="s">
         <v>634</v>
@@ -5599,13 +5667,13 @@
         <v>908</v>
       </c>
       <c r="F25" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="L25" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M25" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -5616,7 +5684,7 @@
         <v>336</v>
       </c>
       <c r="C26">
-        <v>1111</v>
+        <v>1175</v>
       </c>
       <c r="D26" t="s">
         <v>635</v>
@@ -5625,22 +5693,22 @@
         <v>908</v>
       </c>
       <c r="F26" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G26" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H26" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="K26" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="L26" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M26" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -5651,7 +5719,7 @@
         <v>337</v>
       </c>
       <c r="C27">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="D27" t="s">
         <v>636</v>
@@ -5660,22 +5728,22 @@
         <v>908</v>
       </c>
       <c r="F27" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G27" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H27" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="K27" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="L27" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M27" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -5686,7 +5754,7 @@
         <v>338</v>
       </c>
       <c r="C28">
-        <v>790</v>
+        <v>864</v>
       </c>
       <c r="D28" t="s">
         <v>637</v>
@@ -5695,22 +5763,22 @@
         <v>908</v>
       </c>
       <c r="F28" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G28" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H28" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="K28" t="s">
-        <v>1134</v>
+        <v>1127</v>
       </c>
       <c r="L28" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M28" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -5721,7 +5789,7 @@
         <v>339</v>
       </c>
       <c r="C29">
-        <v>1232</v>
+        <v>1333</v>
       </c>
       <c r="D29" t="s">
         <v>638</v>
@@ -5730,22 +5798,22 @@
         <v>908</v>
       </c>
       <c r="F29" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G29" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H29" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="K29" t="s">
-        <v>1135</v>
+        <v>1128</v>
       </c>
       <c r="L29" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M29" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -5765,22 +5833,22 @@
         <v>908</v>
       </c>
       <c r="F30" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G30" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H30" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="K30" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="L30" t="s">
         <v>908</v>
       </c>
       <c r="M30" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -5791,7 +5859,7 @@
         <v>341</v>
       </c>
       <c r="C31">
-        <v>2221</v>
+        <v>2345</v>
       </c>
       <c r="D31" t="s">
         <v>640</v>
@@ -5803,10 +5871,10 @@
         <v>929</v>
       </c>
       <c r="L31" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M31" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -5817,7 +5885,7 @@
         <v>342</v>
       </c>
       <c r="C32">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="D32" t="s">
         <v>641</v>
@@ -5826,13 +5894,13 @@
         <v>908</v>
       </c>
       <c r="F32" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="L32" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M32" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -5843,7 +5911,7 @@
         <v>343</v>
       </c>
       <c r="C33">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D33" t="s">
         <v>642</v>
@@ -5852,13 +5920,13 @@
         <v>908</v>
       </c>
       <c r="F33" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="L33" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M33" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -5869,7 +5937,7 @@
         <v>344</v>
       </c>
       <c r="C34">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
         <v>643</v>
@@ -5878,13 +5946,13 @@
         <v>908</v>
       </c>
       <c r="F34" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="L34" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M34" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -5895,7 +5963,7 @@
         <v>345</v>
       </c>
       <c r="C35">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="D35" t="s">
         <v>644</v>
@@ -5904,13 +5972,13 @@
         <v>908</v>
       </c>
       <c r="F35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L35" t="s">
-        <v>908</v>
+        <v>1188</v>
       </c>
       <c r="M35" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -5921,7 +5989,7 @@
         <v>346</v>
       </c>
       <c r="C36">
-        <v>1232</v>
+        <v>1333</v>
       </c>
       <c r="D36" t="s">
         <v>645</v>
@@ -5930,22 +5998,22 @@
         <v>908</v>
       </c>
       <c r="F36" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G36" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H36" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="K36" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
       <c r="L36" t="s">
-        <v>908</v>
+        <v>1189</v>
       </c>
       <c r="M36" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -5956,7 +6024,7 @@
         <v>347</v>
       </c>
       <c r="C37">
-        <v>790</v>
+        <v>864</v>
       </c>
       <c r="D37" t="s">
         <v>646</v>
@@ -5965,22 +6033,22 @@
         <v>908</v>
       </c>
       <c r="F37" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G37" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H37" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="K37" t="s">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="L37" t="s">
-        <v>908</v>
+        <v>1189</v>
       </c>
       <c r="M37" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -5991,7 +6059,7 @@
         <v>348</v>
       </c>
       <c r="C38">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D38" t="s">
         <v>647</v>
@@ -6000,16 +6068,16 @@
         <v>908</v>
       </c>
       <c r="F38" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="K38" t="s">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="L38" t="s">
-        <v>908</v>
+        <v>1189</v>
       </c>
       <c r="M38" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -6020,7 +6088,7 @@
         <v>349</v>
       </c>
       <c r="C39">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D39" t="s">
         <v>648</v>
@@ -6029,13 +6097,13 @@
         <v>908</v>
       </c>
       <c r="F39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L39" t="s">
-        <v>908</v>
+        <v>1189</v>
       </c>
       <c r="M39" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -6055,22 +6123,22 @@
         <v>908</v>
       </c>
       <c r="F40" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G40" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H40" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="K40" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="L40" t="s">
         <v>908</v>
       </c>
       <c r="M40" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -6081,7 +6149,7 @@
         <v>351</v>
       </c>
       <c r="C41">
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="D41" t="s">
         <v>650</v>
@@ -6090,13 +6158,13 @@
         <v>908</v>
       </c>
       <c r="F41" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L41" t="s">
-        <v>908</v>
+        <v>1189</v>
       </c>
       <c r="M41" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -6107,7 +6175,7 @@
         <v>352</v>
       </c>
       <c r="C42">
-        <v>1084</v>
+        <v>1166</v>
       </c>
       <c r="D42" t="s">
         <v>651</v>
@@ -6116,13 +6184,13 @@
         <v>908</v>
       </c>
       <c r="F42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L42" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M42" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -6133,7 +6201,7 @@
         <v>353</v>
       </c>
       <c r="C43">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="D43" t="s">
         <v>652</v>
@@ -6142,22 +6210,22 @@
         <v>908</v>
       </c>
       <c r="F43" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="G43" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="H43" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="K43" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="L43" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M43" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -6168,7 +6236,7 @@
         <v>354</v>
       </c>
       <c r="C44">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="D44" t="s">
         <v>653</v>
@@ -6180,19 +6248,19 @@
         <v>936</v>
       </c>
       <c r="G44" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="H44" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="K44" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="L44" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M44" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -6203,7 +6271,7 @@
         <v>355</v>
       </c>
       <c r="C45">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="D45" t="s">
         <v>654</v>
@@ -6215,19 +6283,19 @@
         <v>937</v>
       </c>
       <c r="G45" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="H45" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="K45" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="L45" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M45" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -6238,7 +6306,7 @@
         <v>356</v>
       </c>
       <c r="C46">
-        <v>636</v>
+        <v>673</v>
       </c>
       <c r="D46" t="s">
         <v>655</v>
@@ -6250,19 +6318,19 @@
         <v>937</v>
       </c>
       <c r="G46" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="H46" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="K46" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="L46" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M46" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -6273,7 +6341,7 @@
         <v>357</v>
       </c>
       <c r="C47">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="D47" t="s">
         <v>656</v>
@@ -6285,19 +6353,19 @@
         <v>938</v>
       </c>
       <c r="G47" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="H47" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="K47" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="L47" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M47" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -6308,7 +6376,7 @@
         <v>358</v>
       </c>
       <c r="C48">
-        <v>1405</v>
+        <v>1530</v>
       </c>
       <c r="D48" t="s">
         <v>657</v>
@@ -6320,10 +6388,10 @@
         <v>939</v>
       </c>
       <c r="L48" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M48" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -6334,7 +6402,7 @@
         <v>359</v>
       </c>
       <c r="C49">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
         <v>658</v>
@@ -6346,19 +6414,19 @@
         <v>940</v>
       </c>
       <c r="G49" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="H49" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="K49" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="L49" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M49" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -6369,7 +6437,7 @@
         <v>360</v>
       </c>
       <c r="C50">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
         <v>659</v>
@@ -6381,19 +6449,19 @@
         <v>941</v>
       </c>
       <c r="G50" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="H50" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="K50" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="L50" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M50" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -6404,7 +6472,7 @@
         <v>361</v>
       </c>
       <c r="C51">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="D51" t="s">
         <v>660</v>
@@ -6416,19 +6484,19 @@
         <v>942</v>
       </c>
       <c r="G51" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="H51" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="K51" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="L51" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M51" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -6451,19 +6519,19 @@
         <v>943</v>
       </c>
       <c r="G52" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="H52" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="K52" t="s">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="L52" t="s">
         <v>908</v>
       </c>
       <c r="M52" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -6474,7 +6542,7 @@
         <v>363</v>
       </c>
       <c r="C53">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D53" t="s">
         <v>662</v>
@@ -6486,19 +6554,19 @@
         <v>944</v>
       </c>
       <c r="G53" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="H53" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="K53" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="L53" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M53" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -6509,7 +6577,7 @@
         <v>364</v>
       </c>
       <c r="C54">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D54" t="s">
         <v>663</v>
@@ -6521,19 +6589,19 @@
         <v>945</v>
       </c>
       <c r="G54" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H54" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="K54" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L54" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M54" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -6544,7 +6612,7 @@
         <v>365</v>
       </c>
       <c r="C55">
-        <v>763</v>
+        <v>803</v>
       </c>
       <c r="D55" t="s">
         <v>664</v>
@@ -6556,19 +6624,19 @@
         <v>946</v>
       </c>
       <c r="G55" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H55" t="s">
-        <v>1060</v>
+        <v>1053</v>
       </c>
       <c r="K55" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="L55" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M55" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -6579,7 +6647,7 @@
         <v>366</v>
       </c>
       <c r="C56">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="D56" t="s">
         <v>665</v>
@@ -6591,19 +6659,19 @@
         <v>945</v>
       </c>
       <c r="G56" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H56" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="K56" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L56" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M56" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -6614,7 +6682,7 @@
         <v>367</v>
       </c>
       <c r="C57">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="D57" t="s">
         <v>666</v>
@@ -6626,19 +6694,19 @@
         <v>947</v>
       </c>
       <c r="G57" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H57" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="K57" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L57" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M57" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -6649,7 +6717,7 @@
         <v>368</v>
       </c>
       <c r="C58">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="D58" t="s">
         <v>667</v>
@@ -6661,19 +6729,19 @@
         <v>947</v>
       </c>
       <c r="G58" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H58" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="K58" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L58" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M58" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -6684,7 +6752,7 @@
         <v>369</v>
       </c>
       <c r="C59">
-        <v>863</v>
+        <v>925</v>
       </c>
       <c r="D59" t="s">
         <v>668</v>
@@ -6693,22 +6761,22 @@
         <v>908</v>
       </c>
       <c r="F59" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="G59" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H59" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="K59" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L59" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M59" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -6719,7 +6787,7 @@
         <v>370</v>
       </c>
       <c r="C60">
-        <v>863</v>
+        <v>925</v>
       </c>
       <c r="D60" t="s">
         <v>669</v>
@@ -6728,22 +6796,22 @@
         <v>908</v>
       </c>
       <c r="F60" t="s">
-        <v>948</v>
+        <v>933</v>
       </c>
       <c r="G60" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="H60" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="K60" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="L60" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M60" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -6754,7 +6822,7 @@
         <v>371</v>
       </c>
       <c r="C61">
-        <v>763</v>
+        <v>803</v>
       </c>
       <c r="D61" t="s">
         <v>670</v>
@@ -6766,19 +6834,19 @@
         <v>946</v>
       </c>
       <c r="G61" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H61" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="K61" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="L61" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M61" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -6789,7 +6857,7 @@
         <v>372</v>
       </c>
       <c r="C62">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="D62" t="s">
         <v>671</v>
@@ -6801,19 +6869,19 @@
         <v>947</v>
       </c>
       <c r="G62" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="H62" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="K62" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="L62" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M62" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -6824,7 +6892,7 @@
         <v>373</v>
       </c>
       <c r="C63">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="D63" t="s">
         <v>672</v>
@@ -6836,19 +6904,19 @@
         <v>947</v>
       </c>
       <c r="G63" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="H63" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="K63" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
       <c r="L63" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M63" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -6859,7 +6927,7 @@
         <v>374</v>
       </c>
       <c r="C64">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D64" t="s">
         <v>673</v>
@@ -6868,22 +6936,22 @@
         <v>908</v>
       </c>
       <c r="F64" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G64" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="H64" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="K64" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="L64" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M64" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -6894,7 +6962,7 @@
         <v>375</v>
       </c>
       <c r="C65">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D65" t="s">
         <v>674</v>
@@ -6903,22 +6971,22 @@
         <v>908</v>
       </c>
       <c r="F65" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G65" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="H65" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="K65" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="L65" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M65" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -6929,7 +6997,7 @@
         <v>376</v>
       </c>
       <c r="C66">
-        <v>636</v>
+        <v>679</v>
       </c>
       <c r="D66" t="s">
         <v>675</v>
@@ -6938,22 +7006,22 @@
         <v>908</v>
       </c>
       <c r="F66" t="s">
-        <v>937</v>
+        <v>949</v>
       </c>
       <c r="G66" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="H66" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="K66" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="L66" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M66" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -6964,7 +7032,7 @@
         <v>377</v>
       </c>
       <c r="C67">
-        <v>804</v>
+        <v>881</v>
       </c>
       <c r="D67" t="s">
         <v>676</v>
@@ -6973,22 +7041,22 @@
         <v>908</v>
       </c>
       <c r="F67" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G67" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="H67" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="K67" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="L67" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M67" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -6999,7 +7067,7 @@
         <v>378</v>
       </c>
       <c r="C68">
-        <v>1135</v>
+        <v>1200</v>
       </c>
       <c r="D68" t="s">
         <v>677</v>
@@ -7008,13 +7076,13 @@
         <v>908</v>
       </c>
       <c r="F68" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L68" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M68" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -7025,7 +7093,7 @@
         <v>379</v>
       </c>
       <c r="C69">
-        <v>547</v>
+        <v>588</v>
       </c>
       <c r="D69" t="s">
         <v>678</v>
@@ -7034,22 +7102,22 @@
         <v>908</v>
       </c>
       <c r="F69" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G69" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="H69" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="K69" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="L69" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M69" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -7060,7 +7128,7 @@
         <v>380</v>
       </c>
       <c r="C70">
-        <v>696</v>
+        <v>740</v>
       </c>
       <c r="D70" t="s">
         <v>679</v>
@@ -7069,22 +7137,22 @@
         <v>908</v>
       </c>
       <c r="F70" t="s">
-        <v>954</v>
+        <v>923</v>
       </c>
       <c r="G70" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="H70" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="K70" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="L70" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M70" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -7095,7 +7163,7 @@
         <v>381</v>
       </c>
       <c r="C71">
-        <v>1044</v>
+        <v>1086</v>
       </c>
       <c r="D71" t="s">
         <v>680</v>
@@ -7104,22 +7172,22 @@
         <v>908</v>
       </c>
       <c r="F71" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G71" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="H71" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="K71" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="L71" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M71" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -7130,7 +7198,7 @@
         <v>382</v>
       </c>
       <c r="C72">
-        <v>630</v>
+        <v>679</v>
       </c>
       <c r="D72" t="s">
         <v>681</v>
@@ -7139,22 +7207,22 @@
         <v>908</v>
       </c>
       <c r="F72" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="G72" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="H72" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="K72" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="L72" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M72" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -7165,7 +7233,7 @@
         <v>383</v>
       </c>
       <c r="C73">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D73" t="s">
         <v>682</v>
@@ -7174,22 +7242,22 @@
         <v>908</v>
       </c>
       <c r="F73" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G73" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="H73" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="K73" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="L73" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M73" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -7200,7 +7268,7 @@
         <v>384</v>
       </c>
       <c r="C74">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="D74" t="s">
         <v>682</v>
@@ -7209,22 +7277,22 @@
         <v>908</v>
       </c>
       <c r="F74" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="G74" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="H74" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="K74" t="s">
-        <v>1157</v>
+        <v>1150</v>
       </c>
       <c r="L74" t="s">
-        <v>908</v>
+        <v>1190</v>
       </c>
       <c r="M74" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -7235,7 +7303,7 @@
         <v>385</v>
       </c>
       <c r="C75">
-        <v>1420</v>
+        <v>1526</v>
       </c>
       <c r="D75" t="s">
         <v>683</v>
@@ -7244,22 +7312,22 @@
         <v>908</v>
       </c>
       <c r="F75" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G75" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H75" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="K75" t="s">
-        <v>1158</v>
+        <v>1151</v>
       </c>
       <c r="L75" t="s">
         <v>908</v>
       </c>
       <c r="M75" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -7270,7 +7338,7 @@
         <v>386</v>
       </c>
       <c r="C76">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D76" t="s">
         <v>684</v>
@@ -7279,22 +7347,22 @@
         <v>908</v>
       </c>
       <c r="F76" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G76" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H76" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="K76" t="s">
-        <v>1159</v>
+        <v>1152</v>
       </c>
       <c r="L76" t="s">
-        <v>908</v>
+        <v>1192</v>
       </c>
       <c r="M76" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -7305,7 +7373,7 @@
         <v>387</v>
       </c>
       <c r="C77">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D77" t="s">
         <v>685</v>
@@ -7314,22 +7382,22 @@
         <v>908</v>
       </c>
       <c r="F77" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G77" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H77" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="K77" t="s">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="L77" t="s">
-        <v>908</v>
+        <v>1192</v>
       </c>
       <c r="M77" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -7349,19 +7417,19 @@
         <v>908</v>
       </c>
       <c r="G78" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="H78" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="K78" t="s">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="L78" t="s">
         <v>908</v>
       </c>
       <c r="M78" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -7372,7 +7440,7 @@
         <v>389</v>
       </c>
       <c r="C79">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D79" t="s">
         <v>687</v>
@@ -7381,13 +7449,13 @@
         <v>908</v>
       </c>
       <c r="F79" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L79" t="s">
-        <v>908</v>
+        <v>1192</v>
       </c>
       <c r="M79" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -7407,13 +7475,13 @@
         <v>908</v>
       </c>
       <c r="F80" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="L80" t="s">
         <v>908</v>
       </c>
       <c r="M80" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -7433,22 +7501,22 @@
         <v>908</v>
       </c>
       <c r="F81" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G81" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H81" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="K81" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="L81" t="s">
         <v>908</v>
       </c>
       <c r="M81" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -7459,7 +7527,7 @@
         <v>392</v>
       </c>
       <c r="C82">
-        <v>1420</v>
+        <v>1526</v>
       </c>
       <c r="D82" t="s">
         <v>690</v>
@@ -7468,22 +7536,22 @@
         <v>908</v>
       </c>
       <c r="F82" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G82" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H82" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="K82" t="s">
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="L82" t="s">
-        <v>908</v>
+        <v>1193</v>
       </c>
       <c r="M82" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -7494,7 +7562,7 @@
         <v>393</v>
       </c>
       <c r="C83">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D83" t="s">
         <v>691</v>
@@ -7503,22 +7571,22 @@
         <v>908</v>
       </c>
       <c r="F83" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G83" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H83" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="K83" t="s">
-        <v>1164</v>
+        <v>1157</v>
       </c>
       <c r="L83" t="s">
-        <v>908</v>
+        <v>1194</v>
       </c>
       <c r="M83" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -7529,7 +7597,7 @@
         <v>394</v>
       </c>
       <c r="C84">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D84" t="s">
         <v>692</v>
@@ -7538,22 +7606,22 @@
         <v>908</v>
       </c>
       <c r="F84" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G84" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H84" t="s">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="K84" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="L84" t="s">
-        <v>908</v>
+        <v>1193</v>
       </c>
       <c r="M84" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -7564,7 +7632,7 @@
         <v>395</v>
       </c>
       <c r="C85">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D85" t="s">
         <v>693</v>
@@ -7573,13 +7641,13 @@
         <v>908</v>
       </c>
       <c r="F85" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L85" t="s">
-        <v>908</v>
+        <v>1194</v>
       </c>
       <c r="M85" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -7590,7 +7658,7 @@
         <v>396</v>
       </c>
       <c r="C86">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D86" t="s">
         <v>694</v>
@@ -7599,13 +7667,13 @@
         <v>908</v>
       </c>
       <c r="F86" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L86" t="s">
-        <v>908</v>
+        <v>1193</v>
       </c>
       <c r="M86" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -7625,22 +7693,22 @@
         <v>908</v>
       </c>
       <c r="F87" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G87" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H87" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="K87" t="s">
-        <v>1166</v>
+        <v>1159</v>
       </c>
       <c r="L87" t="s">
         <v>908</v>
       </c>
       <c r="M87" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -7660,22 +7728,22 @@
         <v>908</v>
       </c>
       <c r="F88" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="G88" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H88" t="s">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="K88" t="s">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="L88" t="s">
         <v>908</v>
       </c>
       <c r="M88" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -7695,22 +7763,22 @@
         <v>908</v>
       </c>
       <c r="F89" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G89" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="H89" t="s">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="K89" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="L89" t="s">
         <v>908</v>
       </c>
       <c r="M89" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -7721,7 +7789,7 @@
         <v>400</v>
       </c>
       <c r="C90">
-        <v>1420</v>
+        <v>1526</v>
       </c>
       <c r="D90" t="s">
         <v>698</v>
@@ -7730,22 +7798,22 @@
         <v>908</v>
       </c>
       <c r="F90" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G90" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H90" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="K90" t="s">
-        <v>1169</v>
+        <v>1162</v>
       </c>
       <c r="L90" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M90" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -7756,7 +7824,7 @@
         <v>401</v>
       </c>
       <c r="C91">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D91" t="s">
         <v>699</v>
@@ -7765,22 +7833,22 @@
         <v>908</v>
       </c>
       <c r="F91" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G91" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H91" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="K91" t="s">
-        <v>1170</v>
+        <v>1163</v>
       </c>
       <c r="L91" t="s">
-        <v>908</v>
+        <v>1196</v>
       </c>
       <c r="M91" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -7791,7 +7859,7 @@
         <v>402</v>
       </c>
       <c r="C92">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D92" t="s">
         <v>700</v>
@@ -7800,22 +7868,22 @@
         <v>908</v>
       </c>
       <c r="F92" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G92" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H92" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="K92" t="s">
-        <v>1171</v>
+        <v>1164</v>
       </c>
       <c r="L92" t="s">
-        <v>908</v>
+        <v>1196</v>
       </c>
       <c r="M92" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -7826,7 +7894,7 @@
         <v>403</v>
       </c>
       <c r="C93">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D93" t="s">
         <v>701</v>
@@ -7835,22 +7903,22 @@
         <v>908</v>
       </c>
       <c r="F93" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G93" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H93" t="s">
-        <v>1093</v>
+        <v>1086</v>
       </c>
       <c r="K93" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="L93" t="s">
-        <v>908</v>
+        <v>1196</v>
       </c>
       <c r="M93" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -7861,7 +7929,7 @@
         <v>404</v>
       </c>
       <c r="C94">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D94" t="s">
         <v>702</v>
@@ -7870,22 +7938,22 @@
         <v>908</v>
       </c>
       <c r="F94" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G94" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H94" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="K94" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="L94" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M94" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -7896,7 +7964,7 @@
         <v>405</v>
       </c>
       <c r="C95">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D95" t="s">
         <v>703</v>
@@ -7905,13 +7973,13 @@
         <v>908</v>
       </c>
       <c r="F95" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L95" t="s">
-        <v>908</v>
+        <v>1196</v>
       </c>
       <c r="M95" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -7922,7 +7990,7 @@
         <v>406</v>
       </c>
       <c r="C96">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D96" t="s">
         <v>704</v>
@@ -7931,13 +7999,13 @@
         <v>908</v>
       </c>
       <c r="F96" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L96" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M96" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -7948,7 +8016,7 @@
         <v>407</v>
       </c>
       <c r="C97">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D97" t="s">
         <v>705</v>
@@ -7957,13 +8025,13 @@
         <v>908</v>
       </c>
       <c r="F97" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="L97" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M97" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -7974,7 +8042,7 @@
         <v>408</v>
       </c>
       <c r="C98">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="D98" t="s">
         <v>706</v>
@@ -7983,13 +8051,13 @@
         <v>908</v>
       </c>
       <c r="F98" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L98" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M98" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -8000,7 +8068,7 @@
         <v>409</v>
       </c>
       <c r="C99">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="D99" t="s">
         <v>707</v>
@@ -8009,22 +8077,22 @@
         <v>908</v>
       </c>
       <c r="F99" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="G99" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H99" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="K99" t="s">
-        <v>1162</v>
+        <v>1155</v>
       </c>
       <c r="L99" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M99" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -8035,7 +8103,7 @@
         <v>410</v>
       </c>
       <c r="C100">
-        <v>881</v>
+        <v>925</v>
       </c>
       <c r="D100" t="s">
         <v>708</v>
@@ -8044,13 +8112,13 @@
         <v>908</v>
       </c>
       <c r="F100" t="s">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="L100" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M100" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -8061,7 +8129,7 @@
         <v>411</v>
       </c>
       <c r="C101">
-        <v>869</v>
+        <v>925</v>
       </c>
       <c r="D101" t="s">
         <v>709</v>
@@ -8070,13 +8138,13 @@
         <v>908</v>
       </c>
       <c r="F101" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L101" t="s">
-        <v>908</v>
+        <v>1195</v>
       </c>
       <c r="M101" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -8087,7 +8155,7 @@
         <v>412</v>
       </c>
       <c r="C102">
-        <v>881</v>
+        <v>925</v>
       </c>
       <c r="D102" t="s">
         <v>710</v>
@@ -8096,13 +8164,13 @@
         <v>908</v>
       </c>
       <c r="F102" t="s">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="L102" t="s">
-        <v>908</v>
+        <v>1196</v>
       </c>
       <c r="M102" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -8113,7 +8181,7 @@
         <v>413</v>
       </c>
       <c r="C103">
-        <v>1420</v>
+        <v>1526</v>
       </c>
       <c r="D103" t="s">
         <v>711</v>
@@ -8122,22 +8190,22 @@
         <v>908</v>
       </c>
       <c r="F103" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="G103" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="H103" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="K103" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="L103" t="s">
-        <v>908</v>
+        <v>1197</v>
       </c>
       <c r="M103" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -8148,7 +8216,7 @@
         <v>414</v>
       </c>
       <c r="C104">
-        <v>911</v>
+        <v>988</v>
       </c>
       <c r="D104" t="s">
         <v>712</v>
@@ -8157,19 +8225,19 @@
         <v>908</v>
       </c>
       <c r="F104" t="s">
-        <v>959</v>
+        <v>926</v>
       </c>
       <c r="G104" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="H104" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="L104" t="s">
-        <v>908</v>
+        <v>1197</v>
       </c>
       <c r="M104" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -8192,7 +8260,7 @@
         <v>908</v>
       </c>
       <c r="M105" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -8203,7 +8271,7 @@
         <v>416</v>
       </c>
       <c r="C106">
-        <v>491</v>
+        <v>617</v>
       </c>
       <c r="D106" t="s">
         <v>714</v>
@@ -8212,13 +8280,13 @@
         <v>908</v>
       </c>
       <c r="F106" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="L106" t="s">
-        <v>908</v>
+        <v>1198</v>
       </c>
       <c r="M106" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -8229,7 +8297,7 @@
         <v>417</v>
       </c>
       <c r="C107">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D107" t="s">
         <v>715</v>
@@ -8241,10 +8309,10 @@
         <v>912</v>
       </c>
       <c r="L107" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M107" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -8255,7 +8323,7 @@
         <v>418</v>
       </c>
       <c r="C108">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="D108" t="s">
         <v>716</v>
@@ -8267,10 +8335,10 @@
         <v>912</v>
       </c>
       <c r="L108" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M108" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -8281,7 +8349,7 @@
         <v>419</v>
       </c>
       <c r="C109">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="D109" t="s">
         <v>717</v>
@@ -8293,10 +8361,10 @@
         <v>911</v>
       </c>
       <c r="L109" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M109" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -8307,7 +8375,7 @@
         <v>420</v>
       </c>
       <c r="C110">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="D110" t="s">
         <v>718</v>
@@ -8319,10 +8387,10 @@
         <v>911</v>
       </c>
       <c r="L110" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M110" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -8333,7 +8401,7 @@
         <v>421</v>
       </c>
       <c r="C111">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D111" t="s">
         <v>719</v>
@@ -8342,13 +8410,13 @@
         <v>908</v>
       </c>
       <c r="F111" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L111" t="s">
         <v>908</v>
       </c>
       <c r="M111" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="112" spans="1:13">
@@ -8359,7 +8427,7 @@
         <v>422</v>
       </c>
       <c r="C112">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="D112" t="s">
         <v>720</v>
@@ -8368,13 +8436,13 @@
         <v>908</v>
       </c>
       <c r="F112" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L112" t="s">
         <v>908</v>
       </c>
       <c r="M112" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="113" spans="1:13">
@@ -8385,7 +8453,7 @@
         <v>423</v>
       </c>
       <c r="C113">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="D113" t="s">
         <v>721</v>
@@ -8394,13 +8462,13 @@
         <v>908</v>
       </c>
       <c r="F113" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="L113" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M113" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -8411,7 +8479,7 @@
         <v>424</v>
       </c>
       <c r="C114">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="D114" t="s">
         <v>722</v>
@@ -8420,13 +8488,13 @@
         <v>908</v>
       </c>
       <c r="F114" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="L114" t="s">
-        <v>908</v>
+        <v>1187</v>
       </c>
       <c r="M114" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -8437,7 +8505,7 @@
         <v>425</v>
       </c>
       <c r="C115">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D115" t="s">
         <v>723</v>
@@ -8446,16 +8514,16 @@
         <v>908</v>
       </c>
       <c r="F115" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="K115" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="L115" t="s">
         <v>908</v>
       </c>
       <c r="M115" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -8466,7 +8534,7 @@
         <v>426</v>
       </c>
       <c r="C116">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D116" t="s">
         <v>724</v>
@@ -8475,22 +8543,22 @@
         <v>908</v>
       </c>
       <c r="F116" t="s">
-        <v>968</v>
+        <v>910</v>
       </c>
       <c r="G116" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="H116" t="s">
-        <v>1098</v>
+        <v>1091</v>
       </c>
       <c r="K116" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L116" t="s">
         <v>908</v>
       </c>
       <c r="M116" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -8501,7 +8569,7 @@
         <v>427</v>
       </c>
       <c r="C117">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
         <v>725</v>
@@ -8510,22 +8578,22 @@
         <v>908</v>
       </c>
       <c r="F117" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G117" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H117" t="s">
-        <v>1099</v>
+        <v>1092</v>
       </c>
       <c r="K117" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L117" t="s">
         <v>908</v>
       </c>
       <c r="M117" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8536,7 +8604,7 @@
         <v>428</v>
       </c>
       <c r="C118">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
         <v>726</v>
@@ -8545,19 +8613,19 @@
         <v>908</v>
       </c>
       <c r="F118" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
       <c r="G118" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="H118" t="s">
-        <v>1100</v>
+        <v>1093</v>
       </c>
       <c r="L118" t="s">
         <v>908</v>
       </c>
       <c r="M118" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -8568,7 +8636,7 @@
         <v>429</v>
       </c>
       <c r="C119">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D119" t="s">
         <v>727</v>
@@ -8577,22 +8645,22 @@
         <v>908</v>
       </c>
       <c r="F119" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G119" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H119" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="K119" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="L119" t="s">
         <v>908</v>
       </c>
       <c r="M119" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -8603,7 +8671,7 @@
         <v>430</v>
       </c>
       <c r="C120">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
         <v>728</v>
@@ -8612,22 +8680,22 @@
         <v>908</v>
       </c>
       <c r="F120" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G120" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H120" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="K120" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="L120" t="s">
         <v>908</v>
       </c>
       <c r="M120" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -8638,7 +8706,7 @@
         <v>431</v>
       </c>
       <c r="C121">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="D121" t="s">
         <v>729</v>
@@ -8647,19 +8715,19 @@
         <v>908</v>
       </c>
       <c r="F121" t="s">
-        <v>970</v>
+        <v>909</v>
       </c>
       <c r="G121" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H121" t="s">
-        <v>1103</v>
+        <v>1096</v>
       </c>
       <c r="L121" t="s">
         <v>908</v>
       </c>
       <c r="M121" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -8670,7 +8738,7 @@
         <v>432</v>
       </c>
       <c r="C122">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
         <v>730</v>
@@ -8679,22 +8747,22 @@
         <v>908</v>
       </c>
       <c r="F122" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G122" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H122" t="s">
-        <v>1104</v>
+        <v>1097</v>
       </c>
       <c r="K122" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="L122" t="s">
         <v>908</v>
       </c>
       <c r="M122" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -8705,7 +8773,7 @@
         <v>433</v>
       </c>
       <c r="C123">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
         <v>731</v>
@@ -8714,19 +8782,19 @@
         <v>908</v>
       </c>
       <c r="F123" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
       <c r="G123" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H123" t="s">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="L123" t="s">
         <v>908</v>
       </c>
       <c r="M123" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -8737,7 +8805,7 @@
         <v>434</v>
       </c>
       <c r="C124">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="D124" t="s">
         <v>732</v>
@@ -8746,19 +8814,19 @@
         <v>908</v>
       </c>
       <c r="F124" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G124" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H124" t="s">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="L124" t="s">
         <v>908</v>
       </c>
       <c r="M124" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -8769,7 +8837,7 @@
         <v>435</v>
       </c>
       <c r="C125">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="D125" t="s">
         <v>733</v>
@@ -8778,19 +8846,19 @@
         <v>908</v>
       </c>
       <c r="F125" t="s">
-        <v>970</v>
+        <v>909</v>
       </c>
       <c r="G125" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H125" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="L125" t="s">
         <v>908</v>
       </c>
       <c r="M125" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -8801,7 +8869,7 @@
         <v>436</v>
       </c>
       <c r="C126">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="D126" t="s">
         <v>734</v>
@@ -8810,19 +8878,19 @@
         <v>908</v>
       </c>
       <c r="F126" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G126" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H126" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="L126" t="s">
         <v>908</v>
       </c>
       <c r="M126" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -8833,7 +8901,7 @@
         <v>437</v>
       </c>
       <c r="C127">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D127" t="s">
         <v>735</v>
@@ -8842,19 +8910,19 @@
         <v>908</v>
       </c>
       <c r="F127" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="G127" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H127" t="s">
-        <v>1109</v>
+        <v>1102</v>
       </c>
       <c r="L127" t="s">
         <v>908</v>
       </c>
       <c r="M127" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="128" spans="1:13">
@@ -8865,7 +8933,7 @@
         <v>438</v>
       </c>
       <c r="C128">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D128" t="s">
         <v>736</v>
@@ -8874,19 +8942,19 @@
         <v>908</v>
       </c>
       <c r="F128" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="G128" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H128" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="L128" t="s">
         <v>908</v>
       </c>
       <c r="M128" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="129" spans="1:13">
@@ -8897,7 +8965,7 @@
         <v>439</v>
       </c>
       <c r="C129">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D129" t="s">
         <v>737</v>
@@ -8906,22 +8974,22 @@
         <v>908</v>
       </c>
       <c r="F129" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="G129" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H129" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="K129" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L129" t="s">
         <v>908</v>
       </c>
       <c r="M129" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -8932,7 +9000,7 @@
         <v>440</v>
       </c>
       <c r="C130">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="D130" t="s">
         <v>738</v>
@@ -8941,22 +9009,22 @@
         <v>908</v>
       </c>
       <c r="F130" t="s">
-        <v>972</v>
+        <v>916</v>
       </c>
       <c r="G130" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H130" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="K130" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="L130" t="s">
         <v>908</v>
       </c>
       <c r="M130" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -8967,7 +9035,7 @@
         <v>441</v>
       </c>
       <c r="C131">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D131" t="s">
         <v>739</v>
@@ -8976,19 +9044,19 @@
         <v>908</v>
       </c>
       <c r="F131" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="G131" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H131" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="L131" t="s">
         <v>908</v>
       </c>
       <c r="M131" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -8999,7 +9067,7 @@
         <v>442</v>
       </c>
       <c r="C132">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D132" t="s">
         <v>740</v>
@@ -9008,22 +9076,22 @@
         <v>908</v>
       </c>
       <c r="F132" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="G132" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H132" t="s">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="K132" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="L132" t="s">
         <v>908</v>
       </c>
       <c r="M132" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -9034,7 +9102,7 @@
         <v>443</v>
       </c>
       <c r="C133">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
         <v>741</v>
@@ -9043,22 +9111,22 @@
         <v>908</v>
       </c>
       <c r="F133" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="G133" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H133" t="s">
-        <v>1115</v>
+        <v>1108</v>
       </c>
       <c r="K133" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="L133" t="s">
         <v>908</v>
       </c>
       <c r="M133" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -9069,7 +9137,7 @@
         <v>444</v>
       </c>
       <c r="C134">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D134" t="s">
         <v>742</v>
@@ -9078,22 +9146,22 @@
         <v>908</v>
       </c>
       <c r="F134" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="G134" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H134" t="s">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="K134" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="L134" t="s">
         <v>908</v>
       </c>
       <c r="M134" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="135" spans="1:13">
@@ -9104,7 +9172,7 @@
         <v>445</v>
       </c>
       <c r="C135">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D135" t="s">
         <v>743</v>
@@ -9113,22 +9181,22 @@
         <v>908</v>
       </c>
       <c r="F135" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="G135" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H135" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="K135" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="L135" t="s">
         <v>908</v>
       </c>
       <c r="M135" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -9139,7 +9207,7 @@
         <v>446</v>
       </c>
       <c r="C136">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="D136" t="s">
         <v>744</v>
@@ -9148,22 +9216,22 @@
         <v>908</v>
       </c>
       <c r="F136" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G136" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H136" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="K136" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="L136" t="s">
         <v>908</v>
       </c>
       <c r="M136" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -9174,7 +9242,7 @@
         <v>447</v>
       </c>
       <c r="C137">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="D137" t="s">
         <v>745</v>
@@ -9183,19 +9251,19 @@
         <v>908</v>
       </c>
       <c r="F137" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G137" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="H137" t="s">
-        <v>1119</v>
+        <v>1112</v>
       </c>
       <c r="L137" t="s">
         <v>908</v>
       </c>
       <c r="M137" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="138" spans="1:13">
@@ -9206,7 +9274,7 @@
         <v>448</v>
       </c>
       <c r="C138">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="D138" t="s">
         <v>746</v>
@@ -9215,22 +9283,22 @@
         <v>908</v>
       </c>
       <c r="F138" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="G138" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H138" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="K138" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="L138" t="s">
         <v>908</v>
       </c>
       <c r="M138" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -9241,7 +9309,7 @@
         <v>449</v>
       </c>
       <c r="C139">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="D139" t="s">
         <v>747</v>
@@ -9250,22 +9318,22 @@
         <v>908</v>
       </c>
       <c r="F139" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="G139" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H139" t="s">
-        <v>1121</v>
+        <v>1114</v>
       </c>
       <c r="K139" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="L139" t="s">
         <v>908</v>
       </c>
       <c r="M139" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -9276,7 +9344,7 @@
         <v>450</v>
       </c>
       <c r="C140">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="D140" t="s">
         <v>748</v>
@@ -9285,22 +9353,22 @@
         <v>908</v>
       </c>
       <c r="F140" t="s">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="G140" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H140" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="K140" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="L140" t="s">
         <v>908</v>
       </c>
       <c r="M140" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -9311,7 +9379,7 @@
         <v>451</v>
       </c>
       <c r="C141">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="D141" t="s">
         <v>749</v>
@@ -9320,22 +9388,22 @@
         <v>908</v>
       </c>
       <c r="F141" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="G141" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="H141" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="K141" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="L141" t="s">
         <v>908</v>
       </c>
       <c r="M141" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -9346,7 +9414,7 @@
         <v>452</v>
       </c>
       <c r="C142">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D142" t="s">
         <v>750</v>
@@ -9355,13 +9423,13 @@
         <v>908</v>
       </c>
       <c r="F142" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="L142" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M142" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -9381,13 +9449,13 @@
         <v>908</v>
       </c>
       <c r="F143" t="s">
-        <v>911</v>
+        <v>973</v>
       </c>
       <c r="L143" t="s">
         <v>908</v>
       </c>
       <c r="M143" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -9407,13 +9475,13 @@
         <v>908</v>
       </c>
       <c r="F144" t="s">
-        <v>911</v>
+        <v>973</v>
       </c>
       <c r="L144" t="s">
         <v>908</v>
       </c>
       <c r="M144" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="145" spans="1:13">
@@ -9424,7 +9492,7 @@
         <v>455</v>
       </c>
       <c r="C145">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="D145" t="s">
         <v>753</v>
@@ -9433,16 +9501,16 @@
         <v>908</v>
       </c>
       <c r="F145" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="K145" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="L145" t="s">
         <v>908</v>
       </c>
       <c r="M145" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="146" spans="1:13">
@@ -9453,7 +9521,7 @@
         <v>456</v>
       </c>
       <c r="C146">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D146" t="s">
         <v>754</v>
@@ -9462,13 +9530,13 @@
         <v>908</v>
       </c>
       <c r="F146" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="L146" t="s">
         <v>908</v>
       </c>
       <c r="M146" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="147" spans="1:13">
@@ -9488,13 +9556,13 @@
         <v>908</v>
       </c>
       <c r="F147" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="L147" t="s">
         <v>908</v>
       </c>
       <c r="M147" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -9505,7 +9573,7 @@
         <v>458</v>
       </c>
       <c r="C148">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s">
         <v>756</v>
@@ -9517,13 +9585,13 @@
         <v>917</v>
       </c>
       <c r="K148" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="L148" t="s">
         <v>908</v>
       </c>
       <c r="M148" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="149" spans="1:13">
@@ -9534,7 +9602,7 @@
         <v>459</v>
       </c>
       <c r="C149">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="D149" t="s">
         <v>757</v>
@@ -9543,13 +9611,13 @@
         <v>908</v>
       </c>
       <c r="F149" t="s">
-        <v>932</v>
+        <v>976</v>
       </c>
       <c r="L149" t="s">
         <v>908</v>
       </c>
       <c r="M149" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="150" spans="1:13">
@@ -9560,7 +9628,7 @@
         <v>460</v>
       </c>
       <c r="C150">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="D150" t="s">
         <v>758</v>
@@ -9569,13 +9637,13 @@
         <v>908</v>
       </c>
       <c r="F150" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="L150" t="s">
         <v>908</v>
       </c>
       <c r="M150" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="151" spans="1:13">
@@ -9595,13 +9663,13 @@
         <v>908</v>
       </c>
       <c r="F151" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="L151" t="s">
         <v>908</v>
       </c>
       <c r="M151" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -9621,13 +9689,13 @@
         <v>908</v>
       </c>
       <c r="F152" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="L152" t="s">
         <v>908</v>
       </c>
       <c r="M152" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="153" spans="1:13">
@@ -9638,7 +9706,7 @@
         <v>463</v>
       </c>
       <c r="C153">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D153" t="s">
         <v>761</v>
@@ -9647,13 +9715,13 @@
         <v>908</v>
       </c>
       <c r="F153" t="s">
-        <v>984</v>
+        <v>913</v>
       </c>
       <c r="L153" t="s">
         <v>908</v>
       </c>
       <c r="M153" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -9664,7 +9732,7 @@
         <v>464</v>
       </c>
       <c r="C154">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
         <v>762</v>
@@ -9673,13 +9741,13 @@
         <v>908</v>
       </c>
       <c r="F154" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="L154" t="s">
         <v>908</v>
       </c>
       <c r="M154" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -9690,7 +9758,7 @@
         <v>465</v>
       </c>
       <c r="C155">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D155" t="s">
         <v>763</v>
@@ -9699,13 +9767,13 @@
         <v>908</v>
       </c>
       <c r="F155" t="s">
-        <v>986</v>
+        <v>919</v>
       </c>
       <c r="L155" t="s">
         <v>908</v>
       </c>
       <c r="M155" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -9716,7 +9784,7 @@
         <v>466</v>
       </c>
       <c r="C156">
-        <v>703</v>
+        <v>740</v>
       </c>
       <c r="D156" t="s">
         <v>764</v>
@@ -9725,13 +9793,13 @@
         <v>908</v>
       </c>
       <c r="F156" t="s">
-        <v>987</v>
+        <v>923</v>
       </c>
       <c r="L156" t="s">
         <v>908</v>
       </c>
       <c r="M156" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="157" spans="1:13">
@@ -9751,13 +9819,13 @@
         <v>908</v>
       </c>
       <c r="F157" t="s">
-        <v>944</v>
+        <v>981</v>
       </c>
       <c r="L157" t="s">
         <v>908</v>
       </c>
       <c r="M157" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="158" spans="1:13">
@@ -9768,7 +9836,7 @@
         <v>468</v>
       </c>
       <c r="C158">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D158" t="s">
         <v>766</v>
@@ -9777,13 +9845,13 @@
         <v>908</v>
       </c>
       <c r="F158" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L158" t="s">
         <v>908</v>
       </c>
       <c r="M158" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="159" spans="1:13">
@@ -9794,7 +9862,7 @@
         <v>469</v>
       </c>
       <c r="C159">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
         <v>767</v>
@@ -9803,13 +9871,13 @@
         <v>908</v>
       </c>
       <c r="F159" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L159" t="s">
         <v>908</v>
       </c>
       <c r="M159" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -9820,7 +9888,7 @@
         <v>470</v>
       </c>
       <c r="C160">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D160" t="s">
         <v>768</v>
@@ -9829,13 +9897,13 @@
         <v>908</v>
       </c>
       <c r="F160" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L160" t="s">
         <v>908</v>
       </c>
       <c r="M160" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -9846,7 +9914,7 @@
         <v>471</v>
       </c>
       <c r="C161">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D161" t="s">
         <v>769</v>
@@ -9855,13 +9923,13 @@
         <v>908</v>
       </c>
       <c r="F161" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L161" t="s">
         <v>908</v>
       </c>
       <c r="M161" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -9872,7 +9940,7 @@
         <v>472</v>
       </c>
       <c r="C162">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D162" t="s">
         <v>770</v>
@@ -9881,13 +9949,13 @@
         <v>908</v>
       </c>
       <c r="F162" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L162" t="s">
         <v>908</v>
       </c>
       <c r="M162" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="163" spans="1:13">
@@ -9898,7 +9966,7 @@
         <v>473</v>
       </c>
       <c r="C163">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D163" t="s">
         <v>771</v>
@@ -9907,13 +9975,13 @@
         <v>908</v>
       </c>
       <c r="F163" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L163" t="s">
         <v>908</v>
       </c>
       <c r="M163" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -9924,7 +9992,7 @@
         <v>474</v>
       </c>
       <c r="C164">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D164" t="s">
         <v>772</v>
@@ -9933,13 +10001,13 @@
         <v>908</v>
       </c>
       <c r="F164" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L164" t="s">
         <v>908</v>
       </c>
       <c r="M164" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -9950,7 +10018,7 @@
         <v>475</v>
       </c>
       <c r="C165">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D165" t="s">
         <v>773</v>
@@ -9959,13 +10027,13 @@
         <v>908</v>
       </c>
       <c r="F165" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L165" t="s">
         <v>908</v>
       </c>
       <c r="M165" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="166" spans="1:13">
@@ -9976,7 +10044,7 @@
         <v>476</v>
       </c>
       <c r="C166">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D166" t="s">
         <v>774</v>
@@ -9985,13 +10053,13 @@
         <v>908</v>
       </c>
       <c r="F166" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L166" t="s">
         <v>908</v>
       </c>
       <c r="M166" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -10002,7 +10070,7 @@
         <v>477</v>
       </c>
       <c r="C167">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D167" t="s">
         <v>775</v>
@@ -10011,13 +10079,13 @@
         <v>908</v>
       </c>
       <c r="F167" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L167" t="s">
         <v>908</v>
       </c>
       <c r="M167" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -10028,7 +10096,7 @@
         <v>478</v>
       </c>
       <c r="C168">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D168" t="s">
         <v>776</v>
@@ -10037,13 +10105,13 @@
         <v>908</v>
       </c>
       <c r="F168" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L168" t="s">
         <v>908</v>
       </c>
       <c r="M168" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -10054,7 +10122,7 @@
         <v>479</v>
       </c>
       <c r="C169">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D169" t="s">
         <v>777</v>
@@ -10063,13 +10131,13 @@
         <v>908</v>
       </c>
       <c r="F169" t="s">
-        <v>915</v>
+        <v>982</v>
       </c>
       <c r="L169" t="s">
         <v>908</v>
       </c>
       <c r="M169" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="170" spans="1:13">
@@ -10080,7 +10148,7 @@
         <v>480</v>
       </c>
       <c r="C170">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D170" t="s">
         <v>778</v>
@@ -10089,13 +10157,13 @@
         <v>908</v>
       </c>
       <c r="F170" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L170" t="s">
         <v>908</v>
       </c>
       <c r="M170" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -10106,7 +10174,7 @@
         <v>481</v>
       </c>
       <c r="C171">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D171" t="s">
         <v>779</v>
@@ -10115,13 +10183,13 @@
         <v>908</v>
       </c>
       <c r="F171" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="L171" t="s">
         <v>908</v>
       </c>
       <c r="M171" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -10144,7 +10212,7 @@
         <v>908</v>
       </c>
       <c r="M172" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="173" spans="1:13">
@@ -10155,7 +10223,7 @@
         <v>483</v>
       </c>
       <c r="C173">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D173" t="s">
         <v>781</v>
@@ -10164,13 +10232,13 @@
         <v>908</v>
       </c>
       <c r="F173" t="s">
-        <v>989</v>
+        <v>914</v>
       </c>
       <c r="L173" t="s">
         <v>908</v>
       </c>
       <c r="M173" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -10181,7 +10249,7 @@
         <v>484</v>
       </c>
       <c r="C174">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D174" t="s">
         <v>782</v>
@@ -10190,13 +10258,13 @@
         <v>908</v>
       </c>
       <c r="F174" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L174" t="s">
         <v>908</v>
       </c>
       <c r="M174" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -10207,7 +10275,7 @@
         <v>485</v>
       </c>
       <c r="C175">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D175" t="s">
         <v>783</v>
@@ -10216,13 +10284,13 @@
         <v>908</v>
       </c>
       <c r="F175" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L175" t="s">
         <v>908</v>
       </c>
       <c r="M175" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -10233,7 +10301,7 @@
         <v>486</v>
       </c>
       <c r="C176">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="D176" t="s">
         <v>784</v>
@@ -10242,13 +10310,13 @@
         <v>908</v>
       </c>
       <c r="F176" t="s">
-        <v>911</v>
+        <v>976</v>
       </c>
       <c r="L176" t="s">
         <v>908</v>
       </c>
       <c r="M176" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -10259,7 +10327,7 @@
         <v>487</v>
       </c>
       <c r="C177">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="D177" t="s">
         <v>785</v>
@@ -10268,13 +10336,13 @@
         <v>908</v>
       </c>
       <c r="F177" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="L177" t="s">
         <v>908</v>
       </c>
       <c r="M177" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -10294,13 +10362,13 @@
         <v>908</v>
       </c>
       <c r="F178" t="s">
-        <v>929</v>
+        <v>985</v>
       </c>
       <c r="L178" t="s">
         <v>908</v>
       </c>
       <c r="M178" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -10320,13 +10388,13 @@
         <v>908</v>
       </c>
       <c r="F179" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="L179" t="s">
         <v>908</v>
       </c>
       <c r="M179" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -10346,13 +10414,13 @@
         <v>908</v>
       </c>
       <c r="F180" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="L180" t="s">
         <v>908</v>
       </c>
       <c r="M180" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -10363,7 +10431,7 @@
         <v>491</v>
       </c>
       <c r="C181">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D181" t="s">
         <v>789</v>
@@ -10372,13 +10440,13 @@
         <v>908</v>
       </c>
       <c r="F181" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="L181" t="s">
         <v>908</v>
       </c>
       <c r="M181" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -10389,7 +10457,7 @@
         <v>492</v>
       </c>
       <c r="C182">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D182" t="s">
         <v>790</v>
@@ -10398,13 +10466,13 @@
         <v>908</v>
       </c>
       <c r="F182" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="L182" t="s">
         <v>908</v>
       </c>
       <c r="M182" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -10415,7 +10483,7 @@
         <v>493</v>
       </c>
       <c r="C183">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D183" t="s">
         <v>791</v>
@@ -10424,13 +10492,13 @@
         <v>908</v>
       </c>
       <c r="F183" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="L183" t="s">
         <v>908</v>
       </c>
       <c r="M183" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -10441,7 +10509,7 @@
         <v>494</v>
       </c>
       <c r="C184">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D184" t="s">
         <v>792</v>
@@ -10450,13 +10518,13 @@
         <v>908</v>
       </c>
       <c r="F184" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="L184" t="s">
         <v>908</v>
       </c>
       <c r="M184" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -10467,7 +10535,7 @@
         <v>495</v>
       </c>
       <c r="C185">
-        <v>679</v>
+        <v>728</v>
       </c>
       <c r="D185" t="s">
         <v>793</v>
@@ -10476,13 +10544,13 @@
         <v>908</v>
       </c>
       <c r="F185" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="L185" t="s">
         <v>908</v>
       </c>
       <c r="M185" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -10493,7 +10561,7 @@
         <v>496</v>
       </c>
       <c r="C186">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D186" t="s">
         <v>794</v>
@@ -10502,13 +10570,13 @@
         <v>908</v>
       </c>
       <c r="F186" t="s">
-        <v>997</v>
+        <v>919</v>
       </c>
       <c r="L186" t="s">
         <v>908</v>
       </c>
       <c r="M186" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -10519,7 +10587,7 @@
         <v>497</v>
       </c>
       <c r="C187">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D187" t="s">
         <v>795</v>
@@ -10528,13 +10596,13 @@
         <v>908</v>
       </c>
       <c r="F187" t="s">
-        <v>997</v>
+        <v>919</v>
       </c>
       <c r="L187" t="s">
         <v>908</v>
       </c>
       <c r="M187" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -10545,7 +10613,7 @@
         <v>498</v>
       </c>
       <c r="C188">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="D188" t="s">
         <v>796</v>
@@ -10554,13 +10622,13 @@
         <v>908</v>
       </c>
       <c r="F188" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="L188" t="s">
         <v>908</v>
       </c>
       <c r="M188" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -10571,7 +10639,7 @@
         <v>499</v>
       </c>
       <c r="C189">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="D189" t="s">
         <v>797</v>
@@ -10580,13 +10648,13 @@
         <v>908</v>
       </c>
       <c r="F189" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="L189" t="s">
         <v>908</v>
       </c>
       <c r="M189" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="190" spans="1:13">
@@ -10597,7 +10665,7 @@
         <v>500</v>
       </c>
       <c r="C190">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="D190" t="s">
         <v>798</v>
@@ -10606,13 +10674,13 @@
         <v>908</v>
       </c>
       <c r="F190" t="s">
-        <v>998</v>
+        <v>949</v>
       </c>
       <c r="L190" t="s">
         <v>908</v>
       </c>
       <c r="M190" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -10623,7 +10691,7 @@
         <v>501</v>
       </c>
       <c r="C191">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D191" t="s">
         <v>799</v>
@@ -10632,13 +10700,13 @@
         <v>908</v>
       </c>
       <c r="F191" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="L191" t="s">
         <v>908</v>
       </c>
       <c r="M191" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -10649,7 +10717,7 @@
         <v>502</v>
       </c>
       <c r="C192">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="D192" t="s">
         <v>800</v>
@@ -10658,13 +10726,13 @@
         <v>908</v>
       </c>
       <c r="F192" t="s">
-        <v>999</v>
+        <v>958</v>
       </c>
       <c r="L192" t="s">
         <v>908</v>
       </c>
       <c r="M192" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -10684,13 +10752,13 @@
         <v>908</v>
       </c>
       <c r="F193" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="L193" t="s">
         <v>908</v>
       </c>
       <c r="M193" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -10701,7 +10769,7 @@
         <v>504</v>
       </c>
       <c r="C194">
-        <v>1339</v>
+        <v>1457</v>
       </c>
       <c r="D194" t="s">
         <v>802</v>
@@ -10710,13 +10778,13 @@
         <v>908</v>
       </c>
       <c r="F194" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L194" t="s">
         <v>908</v>
       </c>
       <c r="M194" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="195" spans="1:13">
@@ -10727,7 +10795,7 @@
         <v>505</v>
       </c>
       <c r="C195">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D195" t="s">
         <v>803</v>
@@ -10736,13 +10804,13 @@
         <v>908</v>
       </c>
       <c r="F195" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="L195" t="s">
         <v>908</v>
       </c>
       <c r="M195" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -10753,7 +10821,7 @@
         <v>506</v>
       </c>
       <c r="C196">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D196" t="s">
         <v>804</v>
@@ -10762,13 +10830,13 @@
         <v>908</v>
       </c>
       <c r="F196" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="L196" t="s">
         <v>908</v>
       </c>
       <c r="M196" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -10779,7 +10847,7 @@
         <v>507</v>
       </c>
       <c r="C197">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D197" t="s">
         <v>805</v>
@@ -10788,13 +10856,13 @@
         <v>908</v>
       </c>
       <c r="F197" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="L197" t="s">
         <v>908</v>
       </c>
       <c r="M197" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -10805,7 +10873,7 @@
         <v>508</v>
       </c>
       <c r="C198">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="D198" t="s">
         <v>806</v>
@@ -10814,13 +10882,13 @@
         <v>908</v>
       </c>
       <c r="F198" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="L198" t="s">
         <v>908</v>
       </c>
       <c r="M198" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -10831,7 +10899,7 @@
         <v>509</v>
       </c>
       <c r="C199">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="D199" t="s">
         <v>807</v>
@@ -10846,7 +10914,7 @@
         <v>908</v>
       </c>
       <c r="M199" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -10857,7 +10925,7 @@
         <v>510</v>
       </c>
       <c r="C200">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D200" t="s">
         <v>808</v>
@@ -10866,13 +10934,13 @@
         <v>908</v>
       </c>
       <c r="F200" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="L200" t="s">
         <v>908</v>
       </c>
       <c r="M200" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -10883,7 +10951,7 @@
         <v>511</v>
       </c>
       <c r="C201">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D201" t="s">
         <v>809</v>
@@ -10892,13 +10960,13 @@
         <v>908</v>
       </c>
       <c r="F201" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="L201" t="s">
         <v>908</v>
       </c>
       <c r="M201" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -10909,7 +10977,7 @@
         <v>512</v>
       </c>
       <c r="C202">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D202" t="s">
         <v>810</v>
@@ -10918,13 +10986,13 @@
         <v>908</v>
       </c>
       <c r="F202" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="L202" t="s">
         <v>908</v>
       </c>
       <c r="M202" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -10935,7 +11003,7 @@
         <v>513</v>
       </c>
       <c r="C203">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D203" t="s">
         <v>811</v>
@@ -10944,13 +11012,13 @@
         <v>908</v>
       </c>
       <c r="F203" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
       <c r="L203" t="s">
         <v>908</v>
       </c>
       <c r="M203" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -10961,7 +11029,7 @@
         <v>514</v>
       </c>
       <c r="C204">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D204" t="s">
         <v>812</v>
@@ -10970,13 +11038,13 @@
         <v>908</v>
       </c>
       <c r="F204" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
       <c r="L204" t="s">
         <v>908</v>
       </c>
       <c r="M204" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -10987,7 +11055,7 @@
         <v>515</v>
       </c>
       <c r="C205">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D205" t="s">
         <v>813</v>
@@ -10996,22 +11064,22 @@
         <v>908</v>
       </c>
       <c r="F205" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="G205" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H205" t="s">
-        <v>1124</v>
+        <v>1117</v>
       </c>
       <c r="K205" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="L205" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M205" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -11022,7 +11090,7 @@
         <v>516</v>
       </c>
       <c r="C206">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D206" t="s">
         <v>814</v>
@@ -11031,22 +11099,22 @@
         <v>908</v>
       </c>
       <c r="F206" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="G206" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H206" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="K206" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L206" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M206" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -11057,7 +11125,7 @@
         <v>517</v>
       </c>
       <c r="C207">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D207" t="s">
         <v>815</v>
@@ -11066,22 +11134,22 @@
         <v>908</v>
       </c>
       <c r="F207" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="G207" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H207" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="K207" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L207" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M207" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="208" spans="1:13">
@@ -11092,7 +11160,7 @@
         <v>518</v>
       </c>
       <c r="C208">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D208" t="s">
         <v>816</v>
@@ -11101,13 +11169,13 @@
         <v>908</v>
       </c>
       <c r="F208" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L208" t="s">
         <v>908</v>
       </c>
       <c r="M208" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -11118,7 +11186,7 @@
         <v>519</v>
       </c>
       <c r="C209">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D209" t="s">
         <v>817</v>
@@ -11127,13 +11195,13 @@
         <v>908</v>
       </c>
       <c r="F209" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L209" t="s">
         <v>908</v>
       </c>
       <c r="M209" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="210" spans="1:13">
@@ -11144,7 +11212,7 @@
         <v>520</v>
       </c>
       <c r="C210">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D210" t="s">
         <v>818</v>
@@ -11153,13 +11221,13 @@
         <v>908</v>
       </c>
       <c r="F210" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L210" t="s">
         <v>908</v>
       </c>
       <c r="M210" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -11170,7 +11238,7 @@
         <v>521</v>
       </c>
       <c r="C211">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D211" t="s">
         <v>819</v>
@@ -11179,13 +11247,13 @@
         <v>908</v>
       </c>
       <c r="F211" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L211" t="s">
         <v>908</v>
       </c>
       <c r="M211" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -11196,7 +11264,7 @@
         <v>522</v>
       </c>
       <c r="C212">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D212" t="s">
         <v>820</v>
@@ -11205,22 +11273,22 @@
         <v>908</v>
       </c>
       <c r="F212" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="G212" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H212" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="K212" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L212" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M212" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="213" spans="1:13">
@@ -11231,7 +11299,7 @@
         <v>523</v>
       </c>
       <c r="C213">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D213" t="s">
         <v>821</v>
@@ -11240,22 +11308,22 @@
         <v>908</v>
       </c>
       <c r="F213" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="G213" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H213" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="K213" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="L213" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M213" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -11266,7 +11334,7 @@
         <v>524</v>
       </c>
       <c r="C214">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="D214" t="s">
         <v>822</v>
@@ -11275,22 +11343,22 @@
         <v>908</v>
       </c>
       <c r="F214" t="s">
-        <v>1005</v>
+        <v>926</v>
       </c>
       <c r="G214" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H214" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="K214" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="L214" t="s">
-        <v>908</v>
+        <v>1199</v>
       </c>
       <c r="M214" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -11301,7 +11369,7 @@
         <v>525</v>
       </c>
       <c r="C215">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="D215" t="s">
         <v>823</v>
@@ -11310,22 +11378,22 @@
         <v>908</v>
       </c>
       <c r="F215" t="s">
-        <v>1005</v>
+        <v>926</v>
       </c>
       <c r="G215" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="H215" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="K215" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="L215" t="s">
-        <v>908</v>
+        <v>1200</v>
       </c>
       <c r="M215" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -11336,7 +11404,7 @@
         <v>526</v>
       </c>
       <c r="C216">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D216" t="s">
         <v>824</v>
@@ -11345,13 +11413,13 @@
         <v>908</v>
       </c>
       <c r="F216" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L216" t="s">
         <v>908</v>
       </c>
       <c r="M216" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="217" spans="1:13">
@@ -11362,7 +11430,7 @@
         <v>527</v>
       </c>
       <c r="C217">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D217" t="s">
         <v>825</v>
@@ -11371,13 +11439,13 @@
         <v>908</v>
       </c>
       <c r="F217" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L217" t="s">
         <v>908</v>
       </c>
       <c r="M217" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="218" spans="1:13">
@@ -11388,7 +11456,7 @@
         <v>528</v>
       </c>
       <c r="C218">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D218" t="s">
         <v>826</v>
@@ -11397,13 +11465,13 @@
         <v>908</v>
       </c>
       <c r="F218" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L218" t="s">
         <v>908</v>
       </c>
       <c r="M218" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -11426,7 +11494,7 @@
         <v>908</v>
       </c>
       <c r="M219" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -11437,7 +11505,7 @@
         <v>530</v>
       </c>
       <c r="C220">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D220" t="s">
         <v>828</v>
@@ -11446,13 +11514,13 @@
         <v>908</v>
       </c>
       <c r="F220" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L220" t="s">
         <v>908</v>
       </c>
       <c r="M220" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -11463,7 +11531,7 @@
         <v>531</v>
       </c>
       <c r="C221">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D221" t="s">
         <v>829</v>
@@ -11472,13 +11540,13 @@
         <v>908</v>
       </c>
       <c r="F221" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L221" t="s">
         <v>908</v>
       </c>
       <c r="M221" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -11489,7 +11557,7 @@
         <v>532</v>
       </c>
       <c r="C222">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D222" t="s">
         <v>830</v>
@@ -11498,13 +11566,13 @@
         <v>908</v>
       </c>
       <c r="F222" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L222" t="s">
         <v>908</v>
       </c>
       <c r="M222" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="223" spans="1:13">
@@ -11527,7 +11595,7 @@
         <v>908</v>
       </c>
       <c r="M223" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -11538,7 +11606,7 @@
         <v>534</v>
       </c>
       <c r="C224">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D224" t="s">
         <v>832</v>
@@ -11547,13 +11615,13 @@
         <v>908</v>
       </c>
       <c r="F224" t="s">
-        <v>1008</v>
+        <v>931</v>
       </c>
       <c r="L224" t="s">
         <v>908</v>
       </c>
       <c r="M224" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -11564,7 +11632,7 @@
         <v>535</v>
       </c>
       <c r="C225">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D225" t="s">
         <v>833</v>
@@ -11573,13 +11641,13 @@
         <v>908</v>
       </c>
       <c r="F225" t="s">
-        <v>1008</v>
+        <v>931</v>
       </c>
       <c r="L225" t="s">
         <v>908</v>
       </c>
       <c r="M225" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -11590,7 +11658,7 @@
         <v>536</v>
       </c>
       <c r="C226">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D226" t="s">
         <v>834</v>
@@ -11599,22 +11667,22 @@
         <v>908</v>
       </c>
       <c r="F226" t="s">
-        <v>979</v>
+        <v>912</v>
       </c>
       <c r="G226" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H226" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="K226" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="L226" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M226" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -11625,7 +11693,7 @@
         <v>537</v>
       </c>
       <c r="C227">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D227" t="s">
         <v>835</v>
@@ -11634,13 +11702,13 @@
         <v>908</v>
       </c>
       <c r="F227" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L227" t="s">
         <v>908</v>
       </c>
       <c r="M227" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -11651,7 +11719,7 @@
         <v>538</v>
       </c>
       <c r="C228">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D228" t="s">
         <v>836</v>
@@ -11660,13 +11728,13 @@
         <v>908</v>
       </c>
       <c r="F228" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L228" t="s">
         <v>908</v>
       </c>
       <c r="M228" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -11677,7 +11745,7 @@
         <v>539</v>
       </c>
       <c r="C229">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D229" t="s">
         <v>837</v>
@@ -11686,13 +11754,13 @@
         <v>908</v>
       </c>
       <c r="F229" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L229" t="s">
         <v>908</v>
       </c>
       <c r="M229" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -11703,7 +11771,7 @@
         <v>540</v>
       </c>
       <c r="C230">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D230" t="s">
         <v>838</v>
@@ -11712,13 +11780,13 @@
         <v>908</v>
       </c>
       <c r="F230" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="L230" t="s">
         <v>908</v>
       </c>
       <c r="M230" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="231" spans="1:13">
@@ -11729,7 +11797,7 @@
         <v>541</v>
       </c>
       <c r="C231">
-        <v>575</v>
+        <v>605</v>
       </c>
       <c r="D231" t="s">
         <v>839</v>
@@ -11738,22 +11806,22 @@
         <v>908</v>
       </c>
       <c r="F231" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="G231" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H231" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="K231" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="L231" t="s">
-        <v>908</v>
+        <v>1191</v>
       </c>
       <c r="M231" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -11764,7 +11832,7 @@
         <v>542</v>
       </c>
       <c r="C232">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="D232" t="s">
         <v>840</v>
@@ -11773,22 +11841,22 @@
         <v>908</v>
       </c>
       <c r="F232" t="s">
-        <v>1005</v>
+        <v>926</v>
       </c>
       <c r="G232" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="H232" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="K232" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="L232" t="s">
-        <v>908</v>
+        <v>1200</v>
       </c>
       <c r="M232" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -11799,7 +11867,7 @@
         <v>543</v>
       </c>
       <c r="C233">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D233" t="s">
         <v>841</v>
@@ -11808,13 +11876,13 @@
         <v>908</v>
       </c>
       <c r="F233" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L233" t="s">
         <v>908</v>
       </c>
       <c r="M233" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -11825,7 +11893,7 @@
         <v>544</v>
       </c>
       <c r="C234">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D234" t="s">
         <v>842</v>
@@ -11834,13 +11902,13 @@
         <v>908</v>
       </c>
       <c r="F234" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L234" t="s">
         <v>908</v>
       </c>
       <c r="M234" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -11851,7 +11919,7 @@
         <v>545</v>
       </c>
       <c r="C235">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="D235" t="s">
         <v>843</v>
@@ -11860,13 +11928,13 @@
         <v>908</v>
       </c>
       <c r="F235" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="L235" t="s">
         <v>908</v>
       </c>
       <c r="M235" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -11889,7 +11957,7 @@
         <v>908</v>
       </c>
       <c r="M236" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -11900,7 +11968,7 @@
         <v>547</v>
       </c>
       <c r="C237">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D237" t="s">
         <v>845</v>
@@ -11909,13 +11977,13 @@
         <v>908</v>
       </c>
       <c r="F237" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L237" t="s">
         <v>908</v>
       </c>
       <c r="M237" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -11926,7 +11994,7 @@
         <v>548</v>
       </c>
       <c r="C238">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D238" t="s">
         <v>846</v>
@@ -11935,13 +12003,13 @@
         <v>908</v>
       </c>
       <c r="F238" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L238" t="s">
         <v>908</v>
       </c>
       <c r="M238" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="239" spans="1:13">
@@ -11952,7 +12020,7 @@
         <v>549</v>
       </c>
       <c r="C239">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D239" t="s">
         <v>847</v>
@@ -11961,13 +12029,13 @@
         <v>908</v>
       </c>
       <c r="F239" t="s">
-        <v>1007</v>
+        <v>971</v>
       </c>
       <c r="L239" t="s">
         <v>908</v>
       </c>
       <c r="M239" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -11990,7 +12058,7 @@
         <v>908</v>
       </c>
       <c r="M240" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="241" spans="1:13">
@@ -12001,7 +12069,7 @@
         <v>551</v>
       </c>
       <c r="C241">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D241" t="s">
         <v>849</v>
@@ -12010,13 +12078,13 @@
         <v>908</v>
       </c>
       <c r="F241" t="s">
-        <v>1008</v>
+        <v>931</v>
       </c>
       <c r="L241" t="s">
         <v>908</v>
       </c>
       <c r="M241" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -12027,7 +12095,7 @@
         <v>552</v>
       </c>
       <c r="C242">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="D242" t="s">
         <v>850</v>
@@ -12036,13 +12104,13 @@
         <v>908</v>
       </c>
       <c r="F242" t="s">
-        <v>1008</v>
+        <v>931</v>
       </c>
       <c r="L242" t="s">
         <v>908</v>
       </c>
       <c r="M242" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -12053,7 +12121,7 @@
         <v>553</v>
       </c>
       <c r="C243">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="D243" t="s">
         <v>851</v>
@@ -12062,13 +12130,13 @@
         <v>908</v>
       </c>
       <c r="F243" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="L243" t="s">
         <v>908</v>
       </c>
       <c r="M243" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -12079,7 +12147,7 @@
         <v>554</v>
       </c>
       <c r="C244">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="D244" t="s">
         <v>852</v>
@@ -12088,13 +12156,13 @@
         <v>908</v>
       </c>
       <c r="F244" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="L244" t="s">
         <v>908</v>
       </c>
       <c r="M244" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -12105,7 +12173,7 @@
         <v>555</v>
       </c>
       <c r="C245">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="D245" t="s">
         <v>853</v>
@@ -12114,13 +12182,13 @@
         <v>908</v>
       </c>
       <c r="F245" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="L245" t="s">
         <v>908</v>
       </c>
       <c r="M245" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -12131,7 +12199,7 @@
         <v>556</v>
       </c>
       <c r="C246">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="D246" t="s">
         <v>854</v>
@@ -12140,13 +12208,13 @@
         <v>908</v>
       </c>
       <c r="F246" t="s">
-        <v>909</v>
+        <v>961</v>
       </c>
       <c r="L246" t="s">
         <v>908</v>
       </c>
       <c r="M246" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -12157,7 +12225,7 @@
         <v>557</v>
       </c>
       <c r="C247">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="D247" t="s">
         <v>855</v>
@@ -12166,13 +12234,13 @@
         <v>908</v>
       </c>
       <c r="F247" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="L247" t="s">
         <v>908</v>
       </c>
       <c r="M247" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -12183,7 +12251,7 @@
         <v>558</v>
       </c>
       <c r="C248">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="D248" t="s">
         <v>856</v>
@@ -12192,13 +12260,13 @@
         <v>908</v>
       </c>
       <c r="F248" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="L248" t="s">
         <v>908</v>
       </c>
       <c r="M248" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -12209,7 +12277,7 @@
         <v>559</v>
       </c>
       <c r="C249">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="D249" t="s">
         <v>857</v>
@@ -12218,13 +12286,13 @@
         <v>908</v>
       </c>
       <c r="F249" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="L249" t="s">
         <v>908</v>
       </c>
       <c r="M249" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -12235,7 +12303,7 @@
         <v>560</v>
       </c>
       <c r="C250">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="D250" t="s">
         <v>858</v>
@@ -12244,13 +12312,13 @@
         <v>908</v>
       </c>
       <c r="F250" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="L250" t="s">
         <v>908</v>
       </c>
       <c r="M250" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -12261,7 +12329,7 @@
         <v>561</v>
       </c>
       <c r="C251">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D251" t="s">
         <v>859</v>
@@ -12270,13 +12338,13 @@
         <v>908</v>
       </c>
       <c r="F251" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="L251" t="s">
         <v>908</v>
       </c>
       <c r="M251" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -12287,7 +12355,7 @@
         <v>562</v>
       </c>
       <c r="C252">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="D252" t="s">
         <v>860</v>
@@ -12296,13 +12364,13 @@
         <v>908</v>
       </c>
       <c r="F252" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="L252" t="s">
         <v>908</v>
       </c>
       <c r="M252" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -12313,7 +12381,7 @@
         <v>563</v>
       </c>
       <c r="C253">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="D253" t="s">
         <v>861</v>
@@ -12322,13 +12390,13 @@
         <v>908</v>
       </c>
       <c r="F253" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="L253" t="s">
         <v>908</v>
       </c>
       <c r="M253" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="254" spans="1:13">
@@ -12339,7 +12407,7 @@
         <v>564</v>
       </c>
       <c r="C254">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="D254" t="s">
         <v>862</v>
@@ -12348,13 +12416,13 @@
         <v>908</v>
       </c>
       <c r="F254" t="s">
-        <v>1013</v>
+        <v>921</v>
       </c>
       <c r="L254" t="s">
         <v>908</v>
       </c>
       <c r="M254" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="255" spans="1:13">
@@ -12365,7 +12433,7 @@
         <v>565</v>
       </c>
       <c r="C255">
-        <v>574</v>
+        <v>626</v>
       </c>
       <c r="D255" t="s">
         <v>863</v>
@@ -12374,13 +12442,13 @@
         <v>908</v>
       </c>
       <c r="F255" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="L255" t="s">
         <v>908</v>
       </c>
       <c r="M255" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="256" spans="1:13">
@@ -12391,7 +12459,7 @@
         <v>566</v>
       </c>
       <c r="C256">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="D256" t="s">
         <v>864</v>
@@ -12400,13 +12468,13 @@
         <v>908</v>
       </c>
       <c r="F256" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="L256" t="s">
         <v>908</v>
       </c>
       <c r="M256" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="257" spans="1:13">
@@ -12417,7 +12485,7 @@
         <v>567</v>
       </c>
       <c r="C257">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="D257" t="s">
         <v>865</v>
@@ -12426,13 +12494,13 @@
         <v>908</v>
       </c>
       <c r="F257" t="s">
-        <v>1015</v>
+        <v>916</v>
       </c>
       <c r="L257" t="s">
         <v>908</v>
       </c>
       <c r="M257" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="258" spans="1:13">
@@ -12443,7 +12511,7 @@
         <v>568</v>
       </c>
       <c r="C258">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="D258" t="s">
         <v>866</v>
@@ -12452,13 +12520,13 @@
         <v>908</v>
       </c>
       <c r="F258" t="s">
-        <v>1015</v>
+        <v>916</v>
       </c>
       <c r="L258" t="s">
         <v>908</v>
       </c>
       <c r="M258" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="259" spans="1:13">
@@ -12469,7 +12537,7 @@
         <v>569</v>
       </c>
       <c r="C259">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="D259" t="s">
         <v>867</v>
@@ -12478,13 +12546,13 @@
         <v>908</v>
       </c>
       <c r="F259" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="L259" t="s">
         <v>908</v>
       </c>
       <c r="M259" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="260" spans="1:13">
@@ -12495,7 +12563,7 @@
         <v>570</v>
       </c>
       <c r="C260">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D260" t="s">
         <v>868</v>
@@ -12504,13 +12572,13 @@
         <v>908</v>
       </c>
       <c r="F260" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="L260" t="s">
         <v>908</v>
       </c>
       <c r="M260" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="261" spans="1:13">
@@ -12521,7 +12589,7 @@
         <v>571</v>
       </c>
       <c r="C261">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="D261" t="s">
         <v>869</v>
@@ -12530,13 +12598,13 @@
         <v>908</v>
       </c>
       <c r="F261" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="L261" t="s">
         <v>908</v>
       </c>
       <c r="M261" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -12547,7 +12615,7 @@
         <v>572</v>
       </c>
       <c r="C262">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D262" t="s">
         <v>870</v>
@@ -12556,13 +12624,13 @@
         <v>908</v>
       </c>
       <c r="F262" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="L262" t="s">
         <v>908</v>
       </c>
       <c r="M262" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -12573,7 +12641,7 @@
         <v>573</v>
       </c>
       <c r="C263">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D263" t="s">
         <v>870</v>
@@ -12582,13 +12650,13 @@
         <v>908</v>
       </c>
       <c r="F263" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
       <c r="L263" t="s">
         <v>908</v>
       </c>
       <c r="M263" t="s">
-        <v>1448</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="264" spans="1:13">
@@ -12608,13 +12676,13 @@
         <v>908</v>
       </c>
       <c r="F264" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="L264" t="s">
         <v>908</v>
       </c>
       <c r="M264" t="s">
-        <v>1449</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -12625,7 +12693,7 @@
         <v>575</v>
       </c>
       <c r="C265">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="D265" t="s">
         <v>872</v>
@@ -12634,13 +12702,13 @@
         <v>908</v>
       </c>
       <c r="F265" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="L265" t="s">
         <v>908</v>
       </c>
       <c r="M265" t="s">
-        <v>1450</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -12651,7 +12719,7 @@
         <v>576</v>
       </c>
       <c r="C266">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D266" t="s">
         <v>873</v>
@@ -12660,13 +12728,13 @@
         <v>908</v>
       </c>
       <c r="F266" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="L266" t="s">
         <v>908</v>
       </c>
       <c r="M266" t="s">
-        <v>1451</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -12677,7 +12745,7 @@
         <v>577</v>
       </c>
       <c r="C267">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D267" t="s">
         <v>874</v>
@@ -12686,13 +12754,13 @@
         <v>908</v>
       </c>
       <c r="F267" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="L267" t="s">
         <v>908</v>
       </c>
       <c r="M267" t="s">
-        <v>1452</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="268" spans="1:13">
@@ -12703,7 +12771,7 @@
         <v>578</v>
       </c>
       <c r="C268">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="D268" t="s">
         <v>875</v>
@@ -12712,13 +12780,13 @@
         <v>908</v>
       </c>
       <c r="F268" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="L268" t="s">
         <v>908</v>
       </c>
       <c r="M268" t="s">
-        <v>1453</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="269" spans="1:13">
@@ -12729,7 +12797,7 @@
         <v>579</v>
       </c>
       <c r="C269">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="D269" t="s">
         <v>876</v>
@@ -12738,13 +12806,13 @@
         <v>908</v>
       </c>
       <c r="F269" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="L269" t="s">
         <v>908</v>
       </c>
       <c r="M269" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="270" spans="1:13">
@@ -12755,7 +12823,7 @@
         <v>580</v>
       </c>
       <c r="C270">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="D270" t="s">
         <v>877</v>
@@ -12764,13 +12832,13 @@
         <v>908</v>
       </c>
       <c r="F270" t="s">
-        <v>1018</v>
+        <v>942</v>
       </c>
       <c r="L270" t="s">
         <v>908</v>
       </c>
       <c r="M270" t="s">
-        <v>1455</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -12781,7 +12849,7 @@
         <v>581</v>
       </c>
       <c r="C271">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="D271" t="s">
         <v>878</v>
@@ -12790,13 +12858,13 @@
         <v>908</v>
       </c>
       <c r="F271" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="L271" t="s">
         <v>908</v>
       </c>
       <c r="M271" t="s">
-        <v>1456</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -12807,7 +12875,7 @@
         <v>582</v>
       </c>
       <c r="C272">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="D272" t="s">
         <v>879</v>
@@ -12816,13 +12884,13 @@
         <v>908</v>
       </c>
       <c r="F272" t="s">
-        <v>1018</v>
+        <v>942</v>
       </c>
       <c r="L272" t="s">
         <v>908</v>
       </c>
       <c r="M272" t="s">
-        <v>1457</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -12833,7 +12901,7 @@
         <v>583</v>
       </c>
       <c r="C273">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D273" t="s">
         <v>880</v>
@@ -12842,13 +12910,13 @@
         <v>908</v>
       </c>
       <c r="F273" t="s">
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="L273" t="s">
         <v>908</v>
       </c>
       <c r="M273" t="s">
-        <v>1458</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="274" spans="1:13">
@@ -12859,7 +12927,7 @@
         <v>584</v>
       </c>
       <c r="C274">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D274" t="s">
         <v>881</v>
@@ -12868,13 +12936,13 @@
         <v>908</v>
       </c>
       <c r="F274" t="s">
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="L274" t="s">
         <v>908</v>
       </c>
       <c r="M274" t="s">
-        <v>1459</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -12885,7 +12953,7 @@
         <v>585</v>
       </c>
       <c r="C275">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="D275" t="s">
         <v>882</v>
@@ -12894,13 +12962,13 @@
         <v>908</v>
       </c>
       <c r="F275" t="s">
-        <v>930</v>
+        <v>1008</v>
       </c>
       <c r="L275" t="s">
         <v>908</v>
       </c>
       <c r="M275" t="s">
-        <v>1460</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -12911,7 +12979,7 @@
         <v>586</v>
       </c>
       <c r="C276">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D276" t="s">
         <v>883</v>
@@ -12920,13 +12988,13 @@
         <v>908</v>
       </c>
       <c r="F276" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="L276" t="s">
         <v>908</v>
       </c>
       <c r="M276" t="s">
-        <v>1461</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="277" spans="1:13">
@@ -12937,7 +13005,7 @@
         <v>587</v>
       </c>
       <c r="C277">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D277" t="s">
         <v>884</v>
@@ -12946,13 +13014,13 @@
         <v>908</v>
       </c>
       <c r="F277" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="L277" t="s">
         <v>908</v>
       </c>
       <c r="M277" t="s">
-        <v>1462</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -12963,7 +13031,7 @@
         <v>588</v>
       </c>
       <c r="C278">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D278" t="s">
         <v>885</v>
@@ -12972,13 +13040,13 @@
         <v>908</v>
       </c>
       <c r="F278" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="L278" t="s">
         <v>908</v>
       </c>
       <c r="M278" t="s">
-        <v>1463</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12989,7 +13057,7 @@
         <v>589</v>
       </c>
       <c r="C279">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D279" t="s">
         <v>886</v>
@@ -12998,13 +13066,13 @@
         <v>908</v>
       </c>
       <c r="F279" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="L279" t="s">
         <v>908</v>
       </c>
       <c r="M279" t="s">
-        <v>1464</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -13015,7 +13083,7 @@
         <v>590</v>
       </c>
       <c r="C280">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D280" t="s">
         <v>887</v>
@@ -13024,13 +13092,13 @@
         <v>908</v>
       </c>
       <c r="F280" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="L280" t="s">
         <v>908</v>
       </c>
       <c r="M280" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -13041,7 +13109,7 @@
         <v>591</v>
       </c>
       <c r="C281">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D281" t="s">
         <v>888</v>
@@ -13050,13 +13118,13 @@
         <v>908</v>
       </c>
       <c r="F281" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="L281" t="s">
         <v>908</v>
       </c>
       <c r="M281" t="s">
-        <v>1466</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -13067,7 +13135,7 @@
         <v>592</v>
       </c>
       <c r="C282">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="D282" t="s">
         <v>889</v>
@@ -13076,13 +13144,13 @@
         <v>908</v>
       </c>
       <c r="F282" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="L282" t="s">
         <v>908</v>
       </c>
       <c r="M282" t="s">
-        <v>1467</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -13093,7 +13161,7 @@
         <v>593</v>
       </c>
       <c r="C283">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="D283" t="s">
         <v>890</v>
@@ -13102,13 +13170,13 @@
         <v>908</v>
       </c>
       <c r="F283" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="L283" t="s">
         <v>908</v>
       </c>
       <c r="M283" t="s">
-        <v>1468</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -13119,7 +13187,7 @@
         <v>594</v>
       </c>
       <c r="C284">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="D284" t="s">
         <v>891</v>
@@ -13128,13 +13196,13 @@
         <v>908</v>
       </c>
       <c r="F284" t="s">
-        <v>1013</v>
+        <v>973</v>
       </c>
       <c r="L284" t="s">
         <v>908</v>
       </c>
       <c r="M284" t="s">
-        <v>1469</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -13145,7 +13213,7 @@
         <v>595</v>
       </c>
       <c r="C285">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="D285" t="s">
         <v>892</v>
@@ -13154,13 +13222,13 @@
         <v>908</v>
       </c>
       <c r="F285" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="L285" t="s">
         <v>908</v>
       </c>
       <c r="M285" t="s">
-        <v>1470</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -13171,7 +13239,7 @@
         <v>596</v>
       </c>
       <c r="C286">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="D286" t="s">
         <v>893</v>
@@ -13180,13 +13248,13 @@
         <v>908</v>
       </c>
       <c r="F286" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="L286" t="s">
         <v>908</v>
       </c>
       <c r="M286" t="s">
-        <v>1471</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -13197,7 +13265,7 @@
         <v>597</v>
       </c>
       <c r="C287">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="D287" t="s">
         <v>894</v>
@@ -13206,13 +13274,13 @@
         <v>908</v>
       </c>
       <c r="F287" t="s">
-        <v>972</v>
+        <v>1010</v>
       </c>
       <c r="L287" t="s">
         <v>908</v>
       </c>
       <c r="M287" t="s">
-        <v>1472</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="288" spans="1:13">
@@ -13223,7 +13291,7 @@
         <v>598</v>
       </c>
       <c r="C288">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="D288" t="s">
         <v>895</v>
@@ -13232,13 +13300,13 @@
         <v>908</v>
       </c>
       <c r="F288" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="L288" t="s">
         <v>908</v>
       </c>
       <c r="M288" t="s">
-        <v>1473</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="289" spans="1:13">
@@ -13249,7 +13317,7 @@
         <v>599</v>
       </c>
       <c r="C289">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="D289" t="s">
         <v>896</v>
@@ -13258,13 +13326,13 @@
         <v>908</v>
       </c>
       <c r="F289" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="L289" t="s">
         <v>908</v>
       </c>
       <c r="M289" t="s">
-        <v>1474</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -13275,7 +13343,7 @@
         <v>600</v>
       </c>
       <c r="C290">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="D290" t="s">
         <v>897</v>
@@ -13284,13 +13352,13 @@
         <v>908</v>
       </c>
       <c r="F290" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="L290" t="s">
         <v>908</v>
       </c>
       <c r="M290" t="s">
-        <v>1475</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="291" spans="1:13">
@@ -13301,7 +13369,7 @@
         <v>601</v>
       </c>
       <c r="C291">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D291" t="s">
         <v>898</v>
@@ -13310,13 +13378,13 @@
         <v>908</v>
       </c>
       <c r="F291" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="L291" t="s">
         <v>908</v>
       </c>
       <c r="M291" t="s">
-        <v>1476</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="292" spans="1:13">
@@ -13327,7 +13395,7 @@
         <v>602</v>
       </c>
       <c r="C292">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="D292" t="s">
         <v>899</v>
@@ -13336,13 +13404,13 @@
         <v>908</v>
       </c>
       <c r="F292" t="s">
-        <v>970</v>
+        <v>909</v>
       </c>
       <c r="L292" t="s">
         <v>908</v>
       </c>
       <c r="M292" t="s">
-        <v>1477</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="293" spans="1:13">
@@ -13353,7 +13421,7 @@
         <v>603</v>
       </c>
       <c r="C293">
-        <v>588</v>
+        <v>642</v>
       </c>
       <c r="D293" t="s">
         <v>900</v>
@@ -13362,13 +13430,13 @@
         <v>908</v>
       </c>
       <c r="F293" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="L293" t="s">
         <v>908</v>
       </c>
       <c r="M293" t="s">
-        <v>1478</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="294" spans="1:13">
@@ -13379,7 +13447,7 @@
         <v>604</v>
       </c>
       <c r="C294">
-        <v>822</v>
+        <v>895</v>
       </c>
       <c r="D294" t="s">
         <v>901</v>
@@ -13388,13 +13456,13 @@
         <v>908</v>
       </c>
       <c r="F294" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="L294" t="s">
         <v>908</v>
       </c>
       <c r="M294" t="s">
-        <v>1479</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="295" spans="1:13">
@@ -13405,7 +13473,7 @@
         <v>605</v>
       </c>
       <c r="C295">
-        <v>574</v>
+        <v>617</v>
       </c>
       <c r="D295" t="s">
         <v>902</v>
@@ -13414,13 +13482,13 @@
         <v>908</v>
       </c>
       <c r="F295" t="s">
-        <v>1014</v>
+        <v>963</v>
       </c>
       <c r="L295" t="s">
         <v>908</v>
       </c>
       <c r="M295" t="s">
-        <v>1480</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="296" spans="1:13">
@@ -13431,7 +13499,7 @@
         <v>606</v>
       </c>
       <c r="C296">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="D296" t="s">
         <v>903</v>
@@ -13440,13 +13508,13 @@
         <v>908</v>
       </c>
       <c r="F296" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="L296" t="s">
         <v>908</v>
       </c>
       <c r="M296" t="s">
-        <v>1481</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="297" spans="1:13">
@@ -13457,7 +13525,7 @@
         <v>607</v>
       </c>
       <c r="C297">
-        <v>623</v>
+        <v>660</v>
       </c>
       <c r="D297" t="s">
         <v>904</v>
@@ -13466,13 +13534,13 @@
         <v>908</v>
       </c>
       <c r="F297" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="L297" t="s">
         <v>908</v>
       </c>
       <c r="M297" t="s">
-        <v>1482</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="298" spans="1:13">
@@ -13526,7 +13594,7 @@
         <v>908</v>
       </c>
       <c r="F300" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
